--- a/EXCEL_TRABAJADO/2023-1cnl.xlsx
+++ b/EXCEL_TRABAJADO/2023-1cnl.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gians\Desktop\dev\UNDC_AUTOMATIZACION\EXCEL_TRABAJADO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA85216D-8137-4D21-BE11-F5E45B76F13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01706F4A-C75D-448E-9C94-11F49872EA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{AC3D8E4D-96C0-40C7-9193-949C63F87DF0}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AC3D8E4D-96C0-40C7-9193-949C63F87DF0}"/>
   </bookViews>
   <sheets>
     <sheet name="cargas" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cargas!$A$1:$H$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cargas!$A$1:$H$128</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja3!$A$1:$H$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="82">
   <si>
     <t>HORAE</t>
   </si>
@@ -270,6 +270,12 @@
   </si>
   <si>
     <t>OBS</t>
+  </si>
+  <si>
+    <t>DAGA SARAVIA RUDY ALDER</t>
+  </si>
+  <si>
+    <t>https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=555</t>
   </si>
 </sst>
 </file>
@@ -307,7 +313,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,12 +328,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -335,6 +335,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,7 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -396,17 +408,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="20" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -727,17 +745,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2442F8-A25A-4C8B-994C-1CDF0A0D4BA8}">
-  <dimension ref="A1:K207"/>
+  <dimension ref="A1:K219"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D129" sqref="D129:D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="84.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="6.28515625" customWidth="1"/>
     <col min="7" max="8" width="6.85546875" style="2" customWidth="1"/>
@@ -770,163 +788,163 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="14">
-        <v>1</v>
-      </c>
-      <c r="E2" s="14">
-        <v>16</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="C2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13">
+        <v>16</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="15">
         <v>0.34375</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <v>0.5</v>
       </c>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="14">
-        <v>1</v>
-      </c>
-      <c r="E3" s="14">
-        <v>16</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13">
+        <v>16</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <v>0.5</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>0.625</v>
       </c>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="14">
-        <v>1</v>
-      </c>
-      <c r="E4" s="14">
-        <v>16</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13">
+        <v>16</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>0.34375</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>0.40625</v>
       </c>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="14">
-        <v>1</v>
-      </c>
-      <c r="E5" s="14">
-        <v>16</v>
-      </c>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13">
+        <v>16</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <v>0.40625</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>0.46875</v>
       </c>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="14">
-        <v>1</v>
-      </c>
-      <c r="E6" s="14">
-        <v>16</v>
-      </c>
-      <c r="F6" s="14" t="s">
+      <c r="C6" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13">
+        <v>16</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>0.5625</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>0.625</v>
       </c>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="14">
-        <v>1</v>
-      </c>
-      <c r="E7" s="14">
-        <v>16</v>
-      </c>
-      <c r="F7" s="14" t="s">
+      <c r="C7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
+        <v>16</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <v>0.375</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <v>0.4375</v>
       </c>
       <c r="K7" s="5"/>
@@ -938,7 +956,7 @@
       <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D8">
@@ -965,7 +983,7 @@
       <c r="B9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D9">
@@ -992,7 +1010,7 @@
       <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D10">
@@ -1019,7 +1037,7 @@
       <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D11">
@@ -1046,7 +1064,7 @@
       <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D12">
@@ -1067,377 +1085,407 @@
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="14">
-        <v>1</v>
-      </c>
-      <c r="E13" s="14">
-        <v>16</v>
-      </c>
-      <c r="F13" s="14" t="s">
+      <c r="C13" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13">
+        <v>16</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="15">
         <v>0.5625</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="15">
         <v>0.59375</v>
       </c>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="14">
-        <v>16</v>
-      </c>
-      <c r="F14" s="14" t="s">
+      <c r="C14" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13">
+        <v>16</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <v>0.5625</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="15">
         <v>0.59375</v>
       </c>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="14">
-        <v>1</v>
-      </c>
-      <c r="E15" s="14">
-        <v>16</v>
-      </c>
-      <c r="F15" s="14" t="s">
+      <c r="C15" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13">
+        <v>16</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="15">
         <v>0.5625</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="15">
         <v>0.71875</v>
       </c>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="14">
-        <v>1</v>
-      </c>
-      <c r="E16" s="14">
-        <v>16</v>
-      </c>
-      <c r="F16" s="14" t="s">
+      <c r="C16" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="E16" s="13">
+        <v>16</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="15">
         <v>0.59375</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="15">
         <v>0.6875</v>
       </c>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="14">
-        <v>1</v>
-      </c>
-      <c r="E17" s="14">
-        <v>16</v>
-      </c>
-      <c r="F17" s="14" t="s">
+      <c r="C17" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13">
+        <v>16</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="15">
         <v>0.59375</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="15">
         <v>0.6875</v>
       </c>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>68</v>
+      <c r="C18" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="23">
+        <v>1</v>
+      </c>
+      <c r="E18" s="23">
+        <v>16</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="25">
+        <v>0.6875</v>
       </c>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>68</v>
+      <c r="A19" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="23">
+        <v>1</v>
+      </c>
+      <c r="E19" s="23">
+        <v>16</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="25">
+        <v>0.65625</v>
       </c>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="14">
-        <v>1</v>
-      </c>
-      <c r="E20" s="14">
-        <v>16</v>
-      </c>
-      <c r="F20" s="14" t="s">
+      <c r="A20" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="23">
+        <v>1</v>
+      </c>
+      <c r="E20" s="23">
+        <v>16</v>
+      </c>
+      <c r="F20" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="16">
-        <v>0.34375</v>
-      </c>
-      <c r="H20" s="16">
+      <c r="G20" s="25">
+        <v>0.71875</v>
+      </c>
+      <c r="H20" s="25">
+        <v>0.78125</v>
+      </c>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="23">
+        <v>1</v>
+      </c>
+      <c r="E21" s="23">
+        <v>16</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="25">
         <v>0.5</v>
       </c>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="14">
-        <v>1</v>
-      </c>
-      <c r="E21" s="14">
-        <v>16</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="16">
-        <v>0.34375</v>
-      </c>
-      <c r="H21" s="16">
-        <v>0.53125</v>
+      <c r="H21" s="25">
+        <v>0.5625</v>
       </c>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="14">
-        <v>1</v>
-      </c>
-      <c r="E22" s="14">
-        <v>16</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="16">
-        <v>0.34375</v>
-      </c>
-      <c r="H22" s="16">
-        <v>0.53125</v>
+      <c r="A22" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="23">
+        <v>1</v>
+      </c>
+      <c r="E22" s="23">
+        <v>16</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="H22" s="25">
+        <v>0.8125</v>
       </c>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>16</v>
-      </c>
-      <c r="F23" t="s">
-        <v>34</v>
+        <v>60</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="23">
+        <v>16</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>39</v>
       </c>
       <c r="G23" s="2">
         <v>0.34375</v>
       </c>
       <c r="H23" s="2">
-        <v>0.59375</v>
+        <v>0.46875</v>
       </c>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="23">
+        <v>1</v>
+      </c>
+      <c r="E24" s="23">
+        <v>16</v>
+      </c>
+      <c r="F24" s="23" t="s">
         <v>39</v>
       </c>
       <c r="G24" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.71875</v>
+      </c>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="13">
+        <v>1</v>
+      </c>
+      <c r="E25" s="13">
+        <v>16</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="15">
         <v>0.34375</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H25" s="15">
         <v>0.5</v>
       </c>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>16</v>
-      </c>
-      <c r="F25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0.5625</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0.6875</v>
-      </c>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>16</v>
-      </c>
-      <c r="F26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0.78125</v>
+      <c r="A26" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="13">
+        <v>1</v>
+      </c>
+      <c r="E26" s="13">
+        <v>16</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0.34375</v>
+      </c>
+      <c r="H26" s="15">
+        <v>0.53125</v>
       </c>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>16</v>
-      </c>
-      <c r="F27" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0.78125</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0.8125</v>
+      <c r="A27" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="13">
+        <v>1</v>
+      </c>
+      <c r="E27" s="13">
+        <v>16</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0.34375</v>
+      </c>
+      <c r="H27" s="15">
+        <v>0.53125</v>
       </c>
       <c r="K27" s="1"/>
     </row>
@@ -1448,7 +1496,7 @@
       <c r="B28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D28">
@@ -1458,13 +1506,13 @@
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G28" s="2">
-        <v>0.8125</v>
+        <v>0.34375</v>
       </c>
       <c r="H28" s="2">
-        <v>0.84375</v>
+        <v>0.59375</v>
       </c>
       <c r="K28" s="1"/>
     </row>
@@ -1475,7 +1523,7 @@
       <c r="B29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D29">
@@ -1485,41 +1533,51 @@
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G29" s="2">
         <v>0.34375</v>
       </c>
       <c r="H29" s="2">
-        <v>0.4375</v>
+        <v>0.5</v>
       </c>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.6875</v>
+      </c>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D31">
@@ -1529,24 +1587,24 @@
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G31" s="2">
-        <v>0.3125</v>
+        <v>0.75</v>
       </c>
       <c r="H31" s="2">
-        <v>0.4375</v>
+        <v>0.78125</v>
       </c>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D32">
@@ -1556,24 +1614,24 @@
         <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G32" s="2">
-        <v>0.59375</v>
+        <v>0.78125</v>
       </c>
       <c r="H32" s="2">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D33">
@@ -1583,24 +1641,24 @@
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G33" s="2">
-        <v>0.3125</v>
+        <v>0.8125</v>
       </c>
       <c r="H33" s="2">
-        <v>0.375</v>
+        <v>0.84375</v>
       </c>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D34">
@@ -1610,41 +1668,31 @@
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G34" s="2">
-        <v>0.53125</v>
+        <v>0.34375</v>
       </c>
       <c r="H34" s="2">
-        <v>0.5625</v>
+        <v>0.4375</v>
       </c>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>16</v>
-      </c>
-      <c r="F35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0.34375</v>
-      </c>
-      <c r="H35" s="2">
-        <v>0.375</v>
-      </c>
+      <c r="A35" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1654,7 +1702,7 @@
       <c r="B36" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D36">
@@ -1664,132 +1712,132 @@
         <v>16</v>
       </c>
       <c r="F36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>16</v>
+      </c>
+      <c r="F38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>16</v>
+      </c>
+      <c r="F39" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
         <v>38</v>
       </c>
-      <c r="G36" s="2">
-        <v>0.53125</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0.59375</v>
-      </c>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="14">
-        <v>1</v>
-      </c>
-      <c r="E37" s="14">
-        <v>16</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" s="16">
+      <c r="G40" s="2">
         <v>0.34375</v>
       </c>
-      <c r="H37" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="14">
-        <v>1</v>
-      </c>
-      <c r="E38" s="14">
-        <v>16</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38" s="16">
-        <v>0.34375</v>
-      </c>
-      <c r="H38" s="16">
-        <v>0.46875</v>
-      </c>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="14">
-        <v>1</v>
-      </c>
-      <c r="E39" s="14">
-        <v>16</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G39" s="16">
-        <v>0.59375</v>
-      </c>
-      <c r="H39" s="16">
-        <v>0.65625</v>
-      </c>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="14">
-        <v>1</v>
-      </c>
-      <c r="E40" s="14">
-        <v>16</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" s="16">
-        <v>0.34375</v>
-      </c>
-      <c r="H40" s="16">
-        <v>0.46875</v>
+      <c r="H40" s="2">
+        <v>0.375</v>
       </c>
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D41">
@@ -1799,121 +1847,121 @@
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G41" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="13">
+        <v>1</v>
+      </c>
+      <c r="E42" s="13">
+        <v>16</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="15">
         <v>0.34375</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H42" s="15">
         <v>0.5</v>
       </c>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>16</v>
-      </c>
-      <c r="F42" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" s="2">
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="13">
+        <v>1</v>
+      </c>
+      <c r="E43" s="13">
+        <v>16</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" s="15">
         <v>0.34375</v>
       </c>
-      <c r="H42" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>16</v>
-      </c>
-      <c r="F43" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" s="2">
+      <c r="H43" s="15">
+        <v>0.46875</v>
+      </c>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="13">
+        <v>1</v>
+      </c>
+      <c r="E44" s="13">
+        <v>16</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" s="15">
         <v>0.59375</v>
       </c>
-      <c r="H43" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>16</v>
-      </c>
-      <c r="F44" t="s">
-        <v>35</v>
-      </c>
-      <c r="G44" s="2">
+      <c r="H44" s="15">
+        <v>0.65625</v>
+      </c>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="13">
+        <v>1</v>
+      </c>
+      <c r="E45" s="13">
+        <v>16</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" s="15">
         <v>0.34375</v>
       </c>
-      <c r="H44" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>16</v>
-      </c>
-      <c r="F45" t="s">
-        <v>35</v>
-      </c>
-      <c r="G45" s="2">
-        <v>0.59375</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0.75</v>
+      <c r="H45" s="15">
+        <v>0.46875</v>
       </c>
       <c r="K45" s="1"/>
     </row>
@@ -1924,7 +1972,7 @@
       <c r="B46" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D46">
@@ -1934,13 +1982,13 @@
         <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G46" s="2">
-        <v>0.59375</v>
+        <v>0.34375</v>
       </c>
       <c r="H46" s="2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K46" s="1"/>
     </row>
@@ -1951,7 +1999,7 @@
       <c r="B47" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D47">
@@ -1961,132 +2009,132 @@
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G47" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>16</v>
+      </c>
+      <c r="F48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" s="2">
         <v>0.59375</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H48" s="2">
         <v>0.75</v>
       </c>
-      <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="14">
-        <v>1</v>
-      </c>
-      <c r="E48" s="14">
-        <v>16</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G48" s="16">
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="H50" s="2">
         <v>0.75</v>
       </c>
-      <c r="H48" s="16">
-        <v>0.84375</v>
-      </c>
-      <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" s="14">
-        <v>1</v>
-      </c>
-      <c r="E49" s="14">
-        <v>16</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G49" s="16">
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>16</v>
+      </c>
+      <c r="F51" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="H51" s="2">
         <v>0.75</v>
-      </c>
-      <c r="H49" s="16">
-        <v>0.8125</v>
-      </c>
-      <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="14">
-        <v>1</v>
-      </c>
-      <c r="E50" s="14">
-        <v>16</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G50" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="H50" s="16">
-        <v>0.8125</v>
-      </c>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="14">
-        <v>1</v>
-      </c>
-      <c r="E51" s="14">
-        <v>16</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G51" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="H51" s="16">
-        <v>0.59375</v>
       </c>
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>21</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D52">
@@ -2096,349 +2144,364 @@
         <v>16</v>
       </c>
       <c r="F52" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="13">
+        <v>1</v>
+      </c>
+      <c r="E53" s="13">
+        <v>16</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="H53" s="15">
+        <v>0.84375</v>
+      </c>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="13">
+        <v>1</v>
+      </c>
+      <c r="E54" s="13">
+        <v>16</v>
+      </c>
+      <c r="F54" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G52" s="2">
-        <v>0.3125</v>
-      </c>
-      <c r="H52" s="2">
+      <c r="G54" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="H54" s="15">
+        <v>0.8125</v>
+      </c>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="13">
+        <v>1</v>
+      </c>
+      <c r="E55" s="13">
+        <v>16</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" s="15">
         <v>0.5</v>
       </c>
-      <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>16</v>
-      </c>
-      <c r="F53" t="s">
-        <v>35</v>
-      </c>
-      <c r="G53" s="2">
-        <v>0.5625</v>
-      </c>
-      <c r="H53" s="2">
-        <v>0.59375</v>
-      </c>
-      <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>16</v>
-      </c>
-      <c r="F54" t="s">
-        <v>35</v>
-      </c>
-      <c r="G54" s="2">
-        <v>0.59375</v>
-      </c>
-      <c r="H54" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="K54" s="1"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>16</v>
-      </c>
-      <c r="F55" t="s">
-        <v>35</v>
-      </c>
-      <c r="G55" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="H55" s="2">
-        <v>0.71875</v>
+      <c r="H55" s="15">
+        <v>0.8125</v>
       </c>
       <c r="K55" s="1"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>16</v>
-      </c>
-      <c r="F56" t="s">
-        <v>36</v>
-      </c>
-      <c r="G56" s="2">
-        <v>0.53125</v>
-      </c>
-      <c r="H56" s="2">
+      <c r="A56" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="13">
+        <v>1</v>
+      </c>
+      <c r="E56" s="13">
+        <v>16</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="H56" s="15">
         <v>0.59375</v>
       </c>
       <c r="K56" s="1"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>16</v>
+      </c>
+      <c r="F57" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>16</v>
+      </c>
+      <c r="F58" t="s">
+        <v>35</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>16</v>
+      </c>
+      <c r="F59" t="s">
+        <v>35</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>16</v>
+      </c>
+      <c r="F60" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0.71875</v>
+      </c>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>16</v>
+      </c>
+      <c r="F61" t="s">
+        <v>36</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="K57" s="1"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D58" s="9">
-        <v>1</v>
-      </c>
-      <c r="E58" s="9">
-        <v>16</v>
-      </c>
-      <c r="F58" s="9" t="s">
+      <c r="C62" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>16</v>
+      </c>
+      <c r="F62" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>16</v>
+      </c>
+      <c r="F63" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>16</v>
+      </c>
+      <c r="F64" t="s">
         <v>39</v>
       </c>
-      <c r="G58" s="11">
-        <v>0.46875</v>
-      </c>
-      <c r="H58" s="11">
-        <v>0.53125</v>
-      </c>
-      <c r="K58" s="1"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59" s="9">
-        <v>1</v>
-      </c>
-      <c r="E59" s="9">
-        <v>16</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G59" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="H59" s="11">
-        <v>0.4375</v>
-      </c>
-      <c r="K59" s="1"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D60" s="9">
-        <v>1</v>
-      </c>
-      <c r="E60" s="9">
-        <v>16</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G60" s="11">
-        <v>0.40625</v>
-      </c>
-      <c r="H60" s="11">
-        <v>0.46875</v>
-      </c>
-      <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D61" s="9">
-        <v>1</v>
-      </c>
-      <c r="E61" s="9">
-        <v>16</v>
-      </c>
-      <c r="F61" s="9" t="s">
+      <c r="G64" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>16</v>
+      </c>
+      <c r="F65" t="s">
         <v>36</v>
       </c>
-      <c r="G61" s="11">
-        <v>0.40625</v>
-      </c>
-      <c r="H61" s="11">
-        <v>0.46875</v>
-      </c>
-      <c r="K61" s="1"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D62" s="9">
-        <v>1</v>
-      </c>
-      <c r="E62" s="9">
-        <v>16</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G62" s="11">
-        <v>0.40625</v>
-      </c>
-      <c r="H62" s="11">
-        <v>0.46875</v>
-      </c>
-      <c r="K62" s="1"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D63" s="9">
-        <v>1</v>
-      </c>
-      <c r="E63" s="9">
-        <v>16</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G63" s="11">
-        <v>0.65625</v>
-      </c>
-      <c r="H63" s="11">
-        <v>0.71875</v>
-      </c>
-      <c r="K63" s="1"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D64" s="9">
-        <v>1</v>
-      </c>
-      <c r="E64" s="9">
-        <v>16</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G64" s="11">
-        <v>0.625</v>
-      </c>
-      <c r="H64" s="11">
-        <v>0.6875</v>
-      </c>
-      <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D65" s="9">
-        <v>1</v>
-      </c>
-      <c r="E65" s="9">
-        <v>16</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G65" s="11">
-        <v>0.6875</v>
-      </c>
-      <c r="H65" s="11">
-        <v>0.71875</v>
+      <c r="G65" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0.84375</v>
       </c>
       <c r="K65" s="1"/>
     </row>
@@ -2449,7 +2512,7 @@
       <c r="B66" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D66" s="9">
@@ -2462,10 +2525,10 @@
         <v>39</v>
       </c>
       <c r="G66" s="11">
-        <v>0.75</v>
+        <v>0.46875</v>
       </c>
       <c r="H66" s="11">
-        <v>0.8125</v>
+        <v>0.53125</v>
       </c>
       <c r="K66" s="1"/>
     </row>
@@ -2476,7 +2539,7 @@
       <c r="B67" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D67" s="9">
@@ -2486,13 +2549,13 @@
         <v>16</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G67" s="11">
-        <v>0.71875</v>
+        <v>0.375</v>
       </c>
       <c r="H67" s="11">
-        <v>0.84375</v>
+        <v>0.4375</v>
       </c>
       <c r="K67" s="1"/>
     </row>
@@ -2503,7 +2566,7 @@
       <c r="B68" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D68" s="9">
@@ -2513,13 +2576,13 @@
         <v>16</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G68" s="11">
-        <v>0.625</v>
+        <v>0.40625</v>
       </c>
       <c r="H68" s="11">
-        <v>0.75</v>
+        <v>0.46875</v>
       </c>
       <c r="K68" s="1"/>
     </row>
@@ -2530,7 +2593,7 @@
       <c r="B69" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D69" s="9">
@@ -2540,13 +2603,13 @@
         <v>16</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G69" s="11">
-        <v>0.625</v>
+        <v>0.40625</v>
       </c>
       <c r="H69" s="11">
-        <v>0.6875</v>
+        <v>0.46875</v>
       </c>
       <c r="K69" s="1"/>
     </row>
@@ -2557,7 +2620,7 @@
       <c r="B70" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C70" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D70" s="9">
@@ -2570,222 +2633,237 @@
         <v>40</v>
       </c>
       <c r="G70" s="11">
+        <v>0.40625</v>
+      </c>
+      <c r="H70" s="11">
+        <v>0.46875</v>
+      </c>
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" s="9">
+        <v>1</v>
+      </c>
+      <c r="E71" s="9">
+        <v>16</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G71" s="11">
+        <v>0.65625</v>
+      </c>
+      <c r="H71" s="11">
+        <v>0.71875</v>
+      </c>
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" s="9">
+        <v>1</v>
+      </c>
+      <c r="E72" s="9">
+        <v>16</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G72" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="H72" s="11">
         <v>0.6875</v>
       </c>
-      <c r="H70" s="11">
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" s="9">
+        <v>1</v>
+      </c>
+      <c r="E73" s="9">
+        <v>16</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G73" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="H73" s="11">
+        <v>0.71875</v>
+      </c>
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" s="9">
+        <v>1</v>
+      </c>
+      <c r="E74" s="9">
+        <v>16</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G74" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="H74" s="11">
         <v>0.8125</v>
       </c>
-      <c r="K70" s="1"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>48</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="K71" s="1"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D72" s="14">
-        <v>1</v>
-      </c>
-      <c r="E72" s="14">
-        <v>16</v>
-      </c>
-      <c r="F72" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G72" s="16">
-        <v>0.4375</v>
-      </c>
-      <c r="H72" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D73" s="14">
-        <v>1</v>
-      </c>
-      <c r="E73" s="14">
-        <v>16</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G73" s="16">
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" s="9">
+        <v>1</v>
+      </c>
+      <c r="E75" s="9">
+        <v>16</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G75" s="11">
+        <v>0.71875</v>
+      </c>
+      <c r="H75" s="11">
+        <v>0.84375</v>
+      </c>
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" s="9">
+        <v>1</v>
+      </c>
+      <c r="E76" s="9">
+        <v>16</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G76" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="H76" s="11">
         <v>0.75</v>
       </c>
-      <c r="H73" s="16">
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" s="9">
+        <v>1</v>
+      </c>
+      <c r="E77" s="9">
+        <v>16</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G77" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="H77" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" s="9">
+        <v>1</v>
+      </c>
+      <c r="E78" s="9">
+        <v>16</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G78" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="H78" s="11">
         <v>0.8125</v>
-      </c>
-      <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D74" s="14">
-        <v>1</v>
-      </c>
-      <c r="E74" s="14">
-        <v>16</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G74" s="16">
-        <v>0.5625</v>
-      </c>
-      <c r="H74" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="K74" s="1"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D75" s="14">
-        <v>1</v>
-      </c>
-      <c r="E75" s="14">
-        <v>16</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G75" s="16">
-        <v>0.78125</v>
-      </c>
-      <c r="H75" s="16">
-        <v>0.84375</v>
-      </c>
-      <c r="K75" s="1"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" t="s">
-        <v>68</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>16</v>
-      </c>
-      <c r="F76" t="s">
-        <v>34</v>
-      </c>
-      <c r="G76" s="2">
-        <v>0.34375</v>
-      </c>
-      <c r="H76" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>9</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>16</v>
-      </c>
-      <c r="F77" t="s">
-        <v>34</v>
-      </c>
-      <c r="G77" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H77" s="2">
-        <v>0.65625</v>
-      </c>
-      <c r="K77" s="1"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>9</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" t="s">
-        <v>68</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>16</v>
-      </c>
-      <c r="F78" t="s">
-        <v>34</v>
-      </c>
-      <c r="G78" s="2">
-        <v>0.65625</v>
-      </c>
-      <c r="H78" s="2">
-        <v>0.75</v>
       </c>
       <c r="K78" s="1"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" t="s">
+        <v>58</v>
+      </c>
+      <c r="C79" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D79">
@@ -2795,24 +2873,24 @@
         <v>16</v>
       </c>
       <c r="F79" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G79" s="2">
-        <v>0.34375</v>
+        <v>0.8125</v>
       </c>
       <c r="H79" s="2">
-        <v>0.5</v>
+        <v>0.84375</v>
       </c>
       <c r="K79" s="1"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D80">
@@ -2822,24 +2900,24 @@
         <v>16</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G80" s="2">
-        <v>0.5</v>
+        <v>0.84375</v>
       </c>
       <c r="H80" s="2">
-        <v>0.65625</v>
+        <v>0.875</v>
       </c>
       <c r="K80" s="1"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D81">
@@ -2849,24 +2927,24 @@
         <v>16</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G81" s="2">
-        <v>0.5</v>
+        <v>0.8125</v>
       </c>
       <c r="H81" s="2">
-        <v>0.53125</v>
+        <v>0.90625</v>
       </c>
       <c r="K81" s="1"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" t="s">
+        <v>58</v>
+      </c>
+      <c r="C82" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D82">
@@ -2876,306 +2954,321 @@
         <v>16</v>
       </c>
       <c r="F82" t="s">
+        <v>40</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="H82" s="2">
+        <v>0.90625</v>
+      </c>
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" s="13">
+        <v>1</v>
+      </c>
+      <c r="E83" s="13">
+        <v>16</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" s="15">
+        <v>0.4375</v>
+      </c>
+      <c r="H83" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" s="13">
+        <v>1</v>
+      </c>
+      <c r="E84" s="13">
+        <v>16</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G84" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="H84" s="15">
+        <v>0.8125</v>
+      </c>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" s="13">
+        <v>1</v>
+      </c>
+      <c r="E85" s="13">
+        <v>16</v>
+      </c>
+      <c r="F85" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G82" s="2">
-        <v>0.71875</v>
-      </c>
-      <c r="H82" s="2">
+      <c r="G85" s="15">
+        <v>0.5625</v>
+      </c>
+      <c r="H85" s="15">
         <v>0.75</v>
       </c>
-      <c r="K82" s="1"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" t="s">
-        <v>68</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>16</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" s="13">
+        <v>1</v>
+      </c>
+      <c r="E86" s="13">
+        <v>16</v>
+      </c>
+      <c r="F86" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G83" s="2">
-        <v>0.71875</v>
-      </c>
-      <c r="H83" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="K83" s="1"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C84" t="s">
-        <v>68</v>
-      </c>
-      <c r="D84" s="14">
-        <v>1</v>
-      </c>
-      <c r="E84" s="14">
-        <v>16</v>
-      </c>
-      <c r="F84" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G84" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="H84" s="16">
+      <c r="G86" s="15">
+        <v>0.78125</v>
+      </c>
+      <c r="H86" s="15">
         <v>0.84375</v>
-      </c>
-      <c r="K84" s="1"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B85" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C85" t="s">
-        <v>68</v>
-      </c>
-      <c r="D85" s="14">
-        <v>1</v>
-      </c>
-      <c r="E85" s="14">
-        <v>16</v>
-      </c>
-      <c r="F85" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G85" s="16">
-        <v>0.84375</v>
-      </c>
-      <c r="H85" s="16">
-        <v>0.90625</v>
-      </c>
-      <c r="K85" s="1"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C86" t="s">
-        <v>68</v>
-      </c>
-      <c r="D86" s="14">
-        <v>1</v>
-      </c>
-      <c r="E86" s="14">
-        <v>16</v>
-      </c>
-      <c r="F86" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G86" s="16">
-        <v>0.53125</v>
-      </c>
-      <c r="H86" s="16">
-        <v>0.625</v>
       </c>
       <c r="K86" s="1"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C87" t="s">
-        <v>68</v>
+        <v>10</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>16</v>
+      </c>
+      <c r="F87" t="s">
+        <v>34</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0.5</v>
       </c>
       <c r="K87" s="1"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B88" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C88" t="s">
-        <v>68</v>
-      </c>
-      <c r="D88" s="14">
-        <v>1</v>
-      </c>
-      <c r="E88" s="14">
-        <v>16</v>
-      </c>
-      <c r="F88" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G88" s="16">
-        <v>0.3125</v>
-      </c>
-      <c r="H88" s="16">
-        <v>0.46875</v>
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>16</v>
+      </c>
+      <c r="F88" t="s">
+        <v>34</v>
+      </c>
+      <c r="G88" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H88" s="2">
+        <v>0.65625</v>
       </c>
       <c r="K88" s="1"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C89" t="s">
-        <v>68</v>
-      </c>
-      <c r="D89" s="14">
-        <v>1</v>
-      </c>
-      <c r="E89" s="14">
-        <v>16</v>
-      </c>
-      <c r="F89" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G89" s="16">
-        <v>0.46875</v>
-      </c>
-      <c r="H89" s="16">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>16</v>
+      </c>
+      <c r="F89" t="s">
+        <v>34</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0.65625</v>
+      </c>
+      <c r="H89" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>16</v>
+      </c>
+      <c r="F90" t="s">
+        <v>39</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="H90" s="2">
         <v>0.5</v>
       </c>
-      <c r="K89" s="1"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C90" t="s">
-        <v>68</v>
-      </c>
-      <c r="D90" s="14">
-        <v>1</v>
-      </c>
-      <c r="E90" s="14">
-        <v>16</v>
-      </c>
-      <c r="F90" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G90" s="16">
-        <v>0.3125</v>
-      </c>
-      <c r="H90" s="16">
-        <v>0.40625</v>
-      </c>
       <c r="K90" s="1"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C91" t="s">
-        <v>68</v>
-      </c>
-      <c r="D91" s="14">
-        <v>1</v>
-      </c>
-      <c r="E91" s="14">
-        <v>16</v>
-      </c>
-      <c r="F91" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G91" s="16">
-        <v>0.40625</v>
-      </c>
-      <c r="H91" s="16">
-        <v>0.46875</v>
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>16</v>
+      </c>
+      <c r="F91" t="s">
+        <v>39</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H91" s="2">
+        <v>0.65625</v>
       </c>
       <c r="K91" s="1"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B92" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C92" t="s">
-        <v>68</v>
-      </c>
-      <c r="D92" s="14">
-        <v>1</v>
-      </c>
-      <c r="E92" s="14">
-        <v>16</v>
-      </c>
-      <c r="F92" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G92" s="16">
-        <v>0.46875</v>
-      </c>
-      <c r="H92" s="16">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>16</v>
+      </c>
+      <c r="F92" t="s">
+        <v>35</v>
+      </c>
+      <c r="G92" s="2">
         <v>0.5</v>
       </c>
+      <c r="H92" s="2">
+        <v>0.53125</v>
+      </c>
       <c r="K92" s="1"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C93" t="s">
-        <v>68</v>
-      </c>
-      <c r="D93" s="14">
-        <v>1</v>
-      </c>
-      <c r="E93" s="14">
-        <v>16</v>
-      </c>
-      <c r="F93" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G93" s="16">
-        <v>0.4375</v>
-      </c>
-      <c r="H93" s="16">
-        <v>0.5625</v>
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>16</v>
+      </c>
+      <c r="F93" t="s">
+        <v>35</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0.71875</v>
+      </c>
+      <c r="H93" s="2">
+        <v>0.75</v>
       </c>
       <c r="K93" s="1"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D94">
@@ -3185,321 +3278,321 @@
         <v>16</v>
       </c>
       <c r="F94" t="s">
+        <v>36</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0.71875</v>
+      </c>
+      <c r="H94" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" s="13">
+        <v>1</v>
+      </c>
+      <c r="E95" s="13">
+        <v>16</v>
+      </c>
+      <c r="F95" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G94" s="2">
-        <v>0.34375</v>
-      </c>
-      <c r="H94" s="2">
+      <c r="G95" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="H95" s="15">
+        <v>0.84375</v>
+      </c>
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" s="13">
+        <v>1</v>
+      </c>
+      <c r="E96" s="13">
+        <v>16</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G96" s="15">
+        <v>0.84375</v>
+      </c>
+      <c r="H96" s="15">
+        <v>0.90625</v>
+      </c>
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" s="13">
+        <v>1</v>
+      </c>
+      <c r="E97" s="13">
+        <v>16</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G97" s="15">
+        <v>0.53125</v>
+      </c>
+      <c r="H97" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>56</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" s="13">
+        <v>1</v>
+      </c>
+      <c r="E98" s="13">
+        <v>16</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0.78125</v>
+      </c>
+      <c r="H98" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>56</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" s="13">
+        <v>1</v>
+      </c>
+      <c r="E99" s="13">
+        <v>16</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G99" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="H99" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" s="13">
+        <v>1</v>
+      </c>
+      <c r="E100" s="13">
+        <v>16</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G100" s="15">
+        <v>0.3125</v>
+      </c>
+      <c r="H100" s="15">
+        <v>0.46875</v>
+      </c>
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" s="13">
+        <v>1</v>
+      </c>
+      <c r="E101" s="13">
+        <v>16</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G101" s="15">
+        <v>0.46875</v>
+      </c>
+      <c r="H101" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K101" s="1"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" s="13">
+        <v>1</v>
+      </c>
+      <c r="E102" s="13">
+        <v>16</v>
+      </c>
+      <c r="F102" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G102" s="15">
+        <v>0.3125</v>
+      </c>
+      <c r="H102" s="15">
+        <v>0.40625</v>
+      </c>
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" s="13">
+        <v>1</v>
+      </c>
+      <c r="E103" s="13">
+        <v>16</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G103" s="15">
+        <v>0.40625</v>
+      </c>
+      <c r="H103" s="15">
+        <v>0.46875</v>
+      </c>
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" s="13">
+        <v>1</v>
+      </c>
+      <c r="E104" s="13">
+        <v>16</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G104" s="15">
+        <v>0.46875</v>
+      </c>
+      <c r="H104" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" s="13">
+        <v>1</v>
+      </c>
+      <c r="E105" s="13">
+        <v>16</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G105" s="15">
         <v>0.4375</v>
       </c>
-      <c r="K94" s="1"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>49</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C95" t="s">
-        <v>68</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95">
-        <v>16</v>
-      </c>
-      <c r="F95" t="s">
-        <v>34</v>
-      </c>
-      <c r="G95" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H95" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="K95" s="1"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>49</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C96" t="s">
-        <v>68</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96">
-        <v>16</v>
-      </c>
-      <c r="F96" t="s">
-        <v>36</v>
-      </c>
-      <c r="G96" s="2">
-        <v>0.34375</v>
-      </c>
-      <c r="H96" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K96" s="1"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C97" t="s">
-        <v>68</v>
-      </c>
-      <c r="D97" s="14">
-        <v>1</v>
-      </c>
-      <c r="E97" s="14">
-        <v>16</v>
-      </c>
-      <c r="F97" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G97" s="16">
-        <v>0.34375</v>
-      </c>
-      <c r="H97" s="16">
-        <v>0.4375</v>
-      </c>
-      <c r="K97" s="1"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B98" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C98" t="s">
-        <v>68</v>
-      </c>
-      <c r="D98" s="14">
-        <v>1</v>
-      </c>
-      <c r="E98" s="14">
-        <v>16</v>
-      </c>
-      <c r="F98" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G98" s="16">
-        <v>0.4375</v>
-      </c>
-      <c r="H98" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="K98" s="1"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B99" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C99" t="s">
-        <v>68</v>
-      </c>
-      <c r="D99" s="14">
-        <v>1</v>
-      </c>
-      <c r="E99" s="14">
-        <v>16</v>
-      </c>
-      <c r="F99" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G99" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="H99" s="16">
-        <v>0.5625</v>
-      </c>
-      <c r="K99" s="1"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C100" t="s">
-        <v>68</v>
-      </c>
-      <c r="D100" s="14">
-        <v>1</v>
-      </c>
-      <c r="E100" s="14">
-        <v>16</v>
-      </c>
-      <c r="F100" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G100" s="16">
-        <v>0.34375</v>
-      </c>
-      <c r="H100" s="16">
-        <v>0.5625</v>
-      </c>
-      <c r="K100" s="1"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C101" t="s">
-        <v>68</v>
-      </c>
-      <c r="D101" s="14">
-        <v>1</v>
-      </c>
-      <c r="E101" s="14">
-        <v>16</v>
-      </c>
-      <c r="F101" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G101" s="16">
-        <v>0.34375</v>
-      </c>
-      <c r="H101" s="16">
-        <v>0.40625</v>
-      </c>
-      <c r="K101" s="1"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C102" t="s">
-        <v>68</v>
-      </c>
-      <c r="D102" s="14">
-        <v>1</v>
-      </c>
-      <c r="E102" s="14">
-        <v>16</v>
-      </c>
-      <c r="F102" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G102" s="16">
-        <v>0.40625</v>
-      </c>
-      <c r="H102" s="16">
-        <v>0.46875</v>
-      </c>
-      <c r="K102" s="1"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B103" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C103" t="s">
-        <v>68</v>
-      </c>
-      <c r="D103" s="14">
-        <v>1</v>
-      </c>
-      <c r="E103" s="14">
-        <v>16</v>
-      </c>
-      <c r="F103" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G103" s="16">
-        <v>0.46875</v>
-      </c>
-      <c r="H103" s="16">
-        <v>0.53125</v>
-      </c>
-      <c r="K103" s="1"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C104" t="s">
-        <v>68</v>
-      </c>
-      <c r="D104" s="14">
-        <v>1</v>
-      </c>
-      <c r="E104" s="14">
-        <v>16</v>
-      </c>
-      <c r="F104" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G104" s="16">
-        <v>0.53125</v>
-      </c>
-      <c r="H104" s="16">
-        <v>0.5625</v>
-      </c>
-      <c r="K104" s="1"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C105" t="s">
-        <v>68</v>
-      </c>
-      <c r="D105" s="14">
-        <v>1</v>
-      </c>
-      <c r="E105" s="14">
-        <v>16</v>
-      </c>
-      <c r="F105" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G105" s="16">
-        <v>0.3125</v>
-      </c>
-      <c r="H105" s="16">
+      <c r="H105" s="15">
         <v>0.5625</v>
       </c>
       <c r="K105" s="1"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" t="s">
+        <v>59</v>
+      </c>
+      <c r="C106" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D106">
@@ -3509,24 +3602,24 @@
         <v>16</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G106" s="2">
-        <v>0.40625</v>
+        <v>0.34375</v>
       </c>
       <c r="H106" s="2">
-        <v>0.46875</v>
+        <v>0.4375</v>
       </c>
       <c r="K106" s="1"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C107" t="s">
+        <v>59</v>
+      </c>
+      <c r="C107" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D107">
@@ -3535,394 +3628,836 @@
       <c r="E107">
         <v>16</v>
       </c>
-      <c r="F107" s="14" t="s">
+      <c r="F107" t="s">
         <v>34</v>
       </c>
       <c r="G107" s="2">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="H107" s="2">
-        <v>0.4375</v>
+        <v>0.625</v>
       </c>
       <c r="K107" s="1"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>49</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>16</v>
+      </c>
+      <c r="F108" t="s">
+        <v>36</v>
+      </c>
+      <c r="G108" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="H108" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K108" s="1"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" s="13">
+        <v>1</v>
+      </c>
+      <c r="E109" s="13">
+        <v>16</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G109" s="15">
+        <v>0.34375</v>
+      </c>
+      <c r="H109" s="15">
+        <v>0.4375</v>
+      </c>
+      <c r="K109" s="1"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" s="13">
+        <v>1</v>
+      </c>
+      <c r="E110" s="13">
+        <v>16</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G110" s="15">
+        <v>0.4375</v>
+      </c>
+      <c r="H110" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K110" s="1"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" s="13">
+        <v>1</v>
+      </c>
+      <c r="E111" s="13">
+        <v>16</v>
+      </c>
+      <c r="F111" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G111" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="H111" s="15">
+        <v>0.5625</v>
+      </c>
+      <c r="K111" s="1"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" s="13">
+        <v>1</v>
+      </c>
+      <c r="E112" s="13">
+        <v>16</v>
+      </c>
+      <c r="F112" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G112" s="15">
+        <v>0.34375</v>
+      </c>
+      <c r="H112" s="15">
+        <v>0.5625</v>
+      </c>
+      <c r="K112" s="1"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" s="13">
+        <v>1</v>
+      </c>
+      <c r="E113" s="13">
+        <v>16</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G113" s="15">
+        <v>0.34375</v>
+      </c>
+      <c r="H113" s="15">
+        <v>0.40625</v>
+      </c>
+      <c r="K113" s="1"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" s="13">
+        <v>1</v>
+      </c>
+      <c r="E114" s="13">
+        <v>16</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G114" s="15">
+        <v>0.40625</v>
+      </c>
+      <c r="H114" s="15">
+        <v>0.46875</v>
+      </c>
+      <c r="K114" s="1"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" s="13">
+        <v>1</v>
+      </c>
+      <c r="E115" s="13">
+        <v>16</v>
+      </c>
+      <c r="F115" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G115" s="15">
+        <v>0.46875</v>
+      </c>
+      <c r="H115" s="15">
+        <v>0.53125</v>
+      </c>
+      <c r="K115" s="1"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" s="13">
+        <v>1</v>
+      </c>
+      <c r="E116" s="13">
+        <v>16</v>
+      </c>
+      <c r="F116" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G116" s="15">
+        <v>0.53125</v>
+      </c>
+      <c r="H116" s="15">
+        <v>0.5625</v>
+      </c>
+      <c r="K116" s="1"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" s="13">
+        <v>1</v>
+      </c>
+      <c r="E117" s="13">
+        <v>16</v>
+      </c>
+      <c r="F117" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G117" s="15">
+        <v>0.3125</v>
+      </c>
+      <c r="H117" s="15">
+        <v>0.5625</v>
+      </c>
+      <c r="K117" s="1"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>16</v>
+      </c>
+      <c r="F118" t="s">
+        <v>36</v>
+      </c>
+      <c r="G118" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="H118" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="K118" s="1"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>17</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B119" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C108" t="s">
-        <v>68</v>
-      </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
-      <c r="E108">
-        <v>16</v>
-      </c>
-      <c r="F108" s="14" t="s">
+      <c r="C119" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>16</v>
+      </c>
+      <c r="F119" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G108" s="2">
+      <c r="G119" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="H119" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="K119" s="1"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>17</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>16</v>
+      </c>
+      <c r="F120" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G120" s="2">
         <v>0.5</v>
       </c>
-      <c r="H108" s="2">
+      <c r="H120" s="2">
         <v>0.65625</v>
       </c>
-      <c r="K108" s="1"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="K120" s="1"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>17</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B121" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C109" t="s">
-        <v>68</v>
-      </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-      <c r="E109">
-        <v>16</v>
-      </c>
-      <c r="F109" s="14" t="s">
+      <c r="C121" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>16</v>
+      </c>
+      <c r="F121" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G109" s="2">
+      <c r="G121" s="2">
         <v>0.375</v>
       </c>
-      <c r="H109" s="2">
+      <c r="H121" s="2">
         <v>0.4375</v>
       </c>
-      <c r="K109" s="1"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="K121" s="1"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>17</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B122" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C110" t="s">
-        <v>68</v>
-      </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-      <c r="E110">
-        <v>16</v>
-      </c>
-      <c r="F110" s="14" t="s">
+      <c r="C122" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>16</v>
+      </c>
+      <c r="F122" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G110" s="2">
+      <c r="G122" s="2">
         <v>0.5625</v>
       </c>
-      <c r="H110" s="2">
+      <c r="H122" s="2">
         <v>0.625</v>
       </c>
-      <c r="K110" s="1"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="K122" s="1"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>17</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B123" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C111" t="s">
-        <v>68</v>
-      </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-      <c r="E111">
-        <v>16</v>
-      </c>
-      <c r="F111" s="14" t="s">
+      <c r="C123" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>16</v>
+      </c>
+      <c r="F123" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G111" s="2">
+      <c r="G123" s="2">
         <v>0.34375</v>
       </c>
-      <c r="H111" s="2">
+      <c r="H123" s="2">
         <v>0.5</v>
       </c>
-      <c r="K111" s="1"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="K123" s="1"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>17</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B124" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C112" t="s">
-        <v>68</v>
-      </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-      <c r="E112">
-        <v>16</v>
-      </c>
-      <c r="F112" s="14" t="s">
+      <c r="C124" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>16</v>
+      </c>
+      <c r="F124" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G112" s="2">
+      <c r="G124" s="2">
         <v>0.375</v>
       </c>
-      <c r="H112" s="2">
+      <c r="H124" s="2">
         <v>0.4375</v>
       </c>
-      <c r="K112" s="1"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="K124" s="1"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>15</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C113" t="s">
-        <v>68</v>
-      </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
-      <c r="E113">
-        <v>16</v>
-      </c>
-      <c r="F113" t="s">
+      <c r="B125" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>16</v>
+      </c>
+      <c r="F125" t="s">
         <v>38</v>
       </c>
-      <c r="G113" s="2">
+      <c r="G125" s="2">
         <v>0.34375</v>
       </c>
-      <c r="H113" s="2">
+      <c r="H125" s="2">
         <v>0.53125</v>
       </c>
-      <c r="K113" s="1"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="K125" s="1"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>15</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C114" t="s">
-        <v>68</v>
-      </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
-      <c r="E114">
-        <v>16</v>
-      </c>
-      <c r="F114" t="s">
+      <c r="B126" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>16</v>
+      </c>
+      <c r="F126" t="s">
         <v>38</v>
       </c>
-      <c r="G114" s="2">
+      <c r="G126" s="2">
         <v>0.53125</v>
       </c>
-      <c r="H114" s="2">
+      <c r="H126" s="2">
         <v>0.5625</v>
       </c>
-      <c r="K114" s="1"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="K126" s="1"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>15</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C115" t="s">
-        <v>68</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-      <c r="E115">
-        <v>16</v>
-      </c>
-      <c r="F115" s="9" t="s">
+      <c r="B127" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>16</v>
+      </c>
+      <c r="F127" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G115" s="2">
+      <c r="G127" s="2">
         <v>0.5625</v>
       </c>
-      <c r="H115" s="2">
+      <c r="H127" s="2">
         <v>0.6875</v>
       </c>
-      <c r="K115" s="1"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="K127" s="1"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>15</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C116" t="s">
-        <v>68</v>
-      </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
-      <c r="E116">
-        <v>16</v>
-      </c>
-      <c r="F116" s="9" t="s">
+      <c r="B128" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>16</v>
+      </c>
+      <c r="F128" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G116" s="2">
+      <c r="G128" s="2">
         <v>0.6875</v>
       </c>
-      <c r="H116" s="2">
+      <c r="H128" s="2">
         <v>0.78125</v>
       </c>
-      <c r="K116" s="1"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B117" s="4"/>
-      <c r="K117" s="1"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B118" s="4"/>
-      <c r="K118" s="1"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="K119" s="1"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="K120" s="1"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="K121" s="1"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="K122" s="1"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="K123" s="1"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="K124" s="1"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="K125" s="1"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="K126" s="1"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="K127" s="1"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
       <c r="K128" s="1"/>
     </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
+    <row r="129" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D129">
+        <v>6</v>
+      </c>
+      <c r="E129">
+        <v>16</v>
+      </c>
+      <c r="F129" t="s">
+        <v>34</v>
+      </c>
+      <c r="G129" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="H129" s="2">
+        <v>0.5</v>
+      </c>
       <c r="K129" s="1"/>
     </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
+    <row r="130" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D130">
+        <v>6</v>
+      </c>
+      <c r="E130">
+        <v>16</v>
+      </c>
+      <c r="F130" t="s">
+        <v>34</v>
+      </c>
+      <c r="G130" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H130" s="2">
+        <v>0.65625</v>
+      </c>
       <c r="K130" s="1"/>
     </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
+    <row r="131" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D131">
+        <v>6</v>
+      </c>
+      <c r="E131">
+        <v>16</v>
+      </c>
+      <c r="F131" t="s">
+        <v>34</v>
+      </c>
+      <c r="G131" s="2">
+        <v>0.65625</v>
+      </c>
+      <c r="H131" s="2">
+        <v>0.75</v>
+      </c>
       <c r="K131" s="1"/>
     </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
+    <row r="132" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D132">
+        <v>6</v>
+      </c>
+      <c r="E132">
+        <v>16</v>
+      </c>
+      <c r="F132" t="s">
+        <v>39</v>
+      </c>
+      <c r="G132" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="H132" s="2">
+        <v>0.5</v>
+      </c>
       <c r="K132" s="1"/>
     </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
+    <row r="133" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D133">
+        <v>6</v>
+      </c>
+      <c r="E133">
+        <v>16</v>
+      </c>
+      <c r="F133" t="s">
+        <v>39</v>
+      </c>
+      <c r="G133" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H133" s="2">
+        <v>0.65625</v>
+      </c>
       <c r="K133" s="1"/>
     </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
+    <row r="134" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D134">
+        <v>6</v>
+      </c>
+      <c r="E134">
+        <v>16</v>
+      </c>
+      <c r="F134" t="s">
+        <v>35</v>
+      </c>
+      <c r="G134" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H134" s="2">
+        <v>0.53125</v>
+      </c>
       <c r="K134" s="1"/>
     </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
+    <row r="135" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D135">
+        <v>6</v>
+      </c>
+      <c r="E135">
+        <v>16</v>
+      </c>
+      <c r="F135" t="s">
+        <v>35</v>
+      </c>
+      <c r="G135" s="2">
+        <v>0.71875</v>
+      </c>
+      <c r="H135" s="2">
+        <v>0.75</v>
+      </c>
       <c r="K135" s="1"/>
     </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
+    <row r="136" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D136">
+        <v>6</v>
+      </c>
+      <c r="E136">
+        <v>16</v>
+      </c>
+      <c r="F136" t="s">
+        <v>36</v>
+      </c>
+      <c r="G136" s="2">
+        <v>0.71875</v>
+      </c>
+      <c r="H136" s="2">
+        <v>0.75</v>
+      </c>
       <c r="K136" s="1"/>
     </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="K137" s="1"/>
     </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="K138" s="1"/>
     </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="K139" s="1"/>
     </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="K140" s="1"/>
     </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="K141" s="1"/>
     </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="K142" s="1"/>
     </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="K143" s="1"/>
     </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="K144" s="1"/>
@@ -4143,211 +4678,290 @@
       <c r="K187" s="1"/>
     </row>
     <row r="188" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B188" s="6"/>
-      <c r="C188" s="6"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="4"/>
+      <c r="K188" s="1"/>
     </row>
     <row r="189" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B189" s="6"/>
-      <c r="C189" s="6"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="4"/>
+      <c r="K189" s="1"/>
     </row>
     <row r="190" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B190" s="6"/>
-      <c r="C190" s="6"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="4"/>
+      <c r="K190" s="1"/>
     </row>
     <row r="191" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B191" s="6"/>
-      <c r="C191" s="6"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="4"/>
+      <c r="K191" s="1"/>
     </row>
     <row r="192" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B192" s="6"/>
-      <c r="C192" s="6"/>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B192" s="4"/>
+      <c r="C192" s="4"/>
+      <c r="K192" s="1"/>
+    </row>
+    <row r="193" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="K193" s="1"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B195" s="6"/>
-      <c r="C195" s="6"/>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B196" s="6"/>
-      <c r="C196" s="6"/>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B197" s="6"/>
-      <c r="C197" s="6"/>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B198" s="6"/>
-      <c r="C198" s="6"/>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B199" s="6"/>
-      <c r="C199" s="6"/>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K194" s="1"/>
+    </row>
+    <row r="195" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B195" s="4"/>
+      <c r="C195" s="4"/>
+      <c r="K195" s="1"/>
+    </row>
+    <row r="196" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B196" s="4"/>
+      <c r="C196" s="4"/>
+      <c r="K196" s="1"/>
+    </row>
+    <row r="197" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B197" s="4"/>
+      <c r="C197" s="4"/>
+      <c r="K197" s="1"/>
+    </row>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B198" s="4"/>
+      <c r="C198" s="4"/>
+      <c r="K198" s="1"/>
+    </row>
+    <row r="199" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B199" s="4"/>
+      <c r="C199" s="4"/>
+      <c r="K199" s="1"/>
+    </row>
+    <row r="200" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
     </row>
-    <row r="205" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="7"/>
-      <c r="B205" s="6"/>
-      <c r="C205" s="6"/>
-    </row>
-    <row r="206" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="7"/>
-      <c r="B206" s="6"/>
-      <c r="C206" s="6"/>
-    </row>
-    <row r="207" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A207" s="7"/>
+    <row r="205" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
+      <c r="K205" s="1"/>
+    </row>
+    <row r="206" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B206" s="4"/>
+      <c r="C206" s="4"/>
+    </row>
+    <row r="207" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
     </row>
+    <row r="208" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B208" s="6"/>
+      <c r="C208" s="6"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B209" s="6"/>
+      <c r="C209" s="6"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B210" s="6"/>
+      <c r="C210" s="6"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B211" s="6"/>
+      <c r="C211" s="6"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B212" s="6"/>
+      <c r="C212" s="6"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B213" s="6"/>
+      <c r="C213" s="6"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B214" s="6"/>
+      <c r="C214" s="6"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B215" s="6"/>
+      <c r="C215" s="6"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B216" s="6"/>
+      <c r="C216" s="6"/>
+    </row>
+    <row r="217" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A217" s="7"/>
+      <c r="B217" s="6"/>
+      <c r="C217" s="6"/>
+    </row>
+    <row r="218" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A218" s="7"/>
+      <c r="B218" s="6"/>
+      <c r="C218" s="6"/>
+    </row>
+    <row r="219" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A219" s="7"/>
+      <c r="B219" s="6"/>
+      <c r="C219" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H116" xr:uid="{2E2442F8-A25A-4C8B-994C-1CDF0A0D4BA8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H116">
-      <sortCondition ref="A1:A116"/>
+  <autoFilter ref="A1:H128" xr:uid="{2E2442F8-A25A-4C8B-994C-1CDF0A0D4BA8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H128">
+      <sortCondition ref="A1:A128"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="B57" r:id="rId1" xr:uid="{328515B7-12DC-490D-B7AF-294FC1277899}"/>
-    <hyperlink ref="B58" r:id="rId2" xr:uid="{413B3272-D99E-454A-8352-B9A52593D916}"/>
-    <hyperlink ref="B71" r:id="rId3" xr:uid="{1A727747-F7C7-462E-8EEB-B2070847E320}"/>
-    <hyperlink ref="B19" r:id="rId4" xr:uid="{0EC3263F-E445-4616-A541-4F9FDA788FCC}"/>
-    <hyperlink ref="B18" r:id="rId5" xr:uid="{C50310AA-CF4B-4F74-9A54-B727A347323B}"/>
-    <hyperlink ref="B2" r:id="rId6" xr:uid="{7D0B8D4C-6899-4B56-8EA1-1CEB3A5EF4D0}"/>
-    <hyperlink ref="B56" r:id="rId7" xr:uid="{35F55E37-857F-4B76-85E5-02C8997874CA}"/>
-    <hyperlink ref="B87" r:id="rId8" xr:uid="{3F2D6ED2-940F-458B-88E1-5A1B6B215BC1}"/>
-    <hyperlink ref="B30" r:id="rId9" xr:uid="{B2DE5D1F-1166-4863-8D0B-334FE5A4D725}"/>
-    <hyperlink ref="B41" r:id="rId10" xr:uid="{6938CEBA-6445-47AC-AC90-E2C93BC79E53}"/>
-    <hyperlink ref="B113" r:id="rId11" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=523" xr:uid="{29B5E415-9D0E-418B-AF87-04D1BAE27726}"/>
-    <hyperlink ref="B114" r:id="rId12" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=523" xr:uid="{8ABCEFC7-D08E-44AD-9A03-80559FB57AA7}"/>
-    <hyperlink ref="B115" r:id="rId13" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=523" xr:uid="{894FCD3E-6B48-4147-81D2-962ADA3A5BF5}"/>
-    <hyperlink ref="B116" r:id="rId14" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=523" xr:uid="{458398A0-EE8F-498D-99F3-EBF3E075342F}"/>
-    <hyperlink ref="B3" r:id="rId15" xr:uid="{EEE81DFF-ED2F-4AF9-BD1D-0851E248D1CA}"/>
-    <hyperlink ref="B4" r:id="rId16" xr:uid="{20F58D97-6C49-49DA-AC0E-A001593C067B}"/>
-    <hyperlink ref="B5" r:id="rId17" xr:uid="{B7D3E1F3-567D-4665-93B8-35BC4E8E981C}"/>
-    <hyperlink ref="B6" r:id="rId18" xr:uid="{884903EB-35AF-4054-8601-D00C5EF64A7A}"/>
-    <hyperlink ref="B7" r:id="rId19" xr:uid="{0565313D-8987-46F0-953E-ED09D6689F37}"/>
-    <hyperlink ref="B8" r:id="rId20" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=542" xr:uid="{8582CED3-4AD0-45BA-BC9D-B42AA6341519}"/>
-    <hyperlink ref="B9" r:id="rId21" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=542" xr:uid="{9DF4E807-CCF9-460C-A4FD-6A07AD9D6EDB}"/>
-    <hyperlink ref="B10" r:id="rId22" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=542" xr:uid="{563F3D2B-B7FA-4919-8791-3D0B60B3EC41}"/>
-    <hyperlink ref="B11" r:id="rId23" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=542" xr:uid="{2C40E45A-9C67-4524-A1C4-A47179AF4D24}"/>
-    <hyperlink ref="B12" r:id="rId24" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=542" xr:uid="{E5ABF007-2A3E-4CCC-81F4-839C39A361E3}"/>
-    <hyperlink ref="B13" r:id="rId25" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{7EE12212-32E6-4785-B8C7-45523DCFFD9F}"/>
-    <hyperlink ref="B14" r:id="rId26" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{18D03AA2-3249-4AEC-8610-0FC91C44B203}"/>
-    <hyperlink ref="B15" r:id="rId27" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{6AE59774-15C2-416F-BE28-97A4693D3B01}"/>
-    <hyperlink ref="B16" r:id="rId28" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{C8023F26-61FA-4030-B880-FFBD5F24EB8E}"/>
-    <hyperlink ref="B17" r:id="rId29" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{996EF2CD-771D-421D-83DD-EC0567C5603C}"/>
-    <hyperlink ref="B20" r:id="rId30" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=477" xr:uid="{4DA22B3F-A300-46C2-AEA3-9498610E1F8A}"/>
-    <hyperlink ref="B21" r:id="rId31" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=477" xr:uid="{9C232393-6CA3-451A-B064-F3F99B42076D}"/>
-    <hyperlink ref="B22" r:id="rId32" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=477" xr:uid="{5F87FFBC-B774-48D6-A7FF-067C22E2F681}"/>
-    <hyperlink ref="B23" r:id="rId33" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{8F4FA2A4-7B57-4D1E-8E6D-3828D6B0A545}"/>
-    <hyperlink ref="B24" r:id="rId34" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{A6AF2A75-D742-437E-BA01-41651E3D0F13}"/>
-    <hyperlink ref="B25" r:id="rId35" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{E067F5C8-64F5-4E7A-912D-D9536F6A165A}"/>
-    <hyperlink ref="B26" r:id="rId36" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{2D30943A-3364-4FD7-8128-468B112790EA}"/>
-    <hyperlink ref="B27" r:id="rId37" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{21568556-F323-4B73-83CF-5B00B04FDC93}"/>
-    <hyperlink ref="B28" r:id="rId38" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{A9FBC03A-BE86-4F2E-B3E8-FEFF96F5798A}"/>
-    <hyperlink ref="B29" r:id="rId39" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{30872622-3ECE-4241-AEDD-6D578CF04468}"/>
-    <hyperlink ref="B37" r:id="rId40" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{CDE3AD7D-FA76-4090-AB7B-7B4A2FC49972}"/>
-    <hyperlink ref="B38" r:id="rId41" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{FECC6EC3-9753-48B7-BFA1-4DD0911A997C}"/>
-    <hyperlink ref="B39" r:id="rId42" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{17B8B4E8-49F4-4568-9DD7-410D524CDB12}"/>
-    <hyperlink ref="B40" r:id="rId43" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{4E99AB37-96B5-4B9C-87A7-56D271A8E83A}"/>
-    <hyperlink ref="B43" r:id="rId44" xr:uid="{F242BF75-D16B-4A6F-ACB4-700B6B9F6158}"/>
-    <hyperlink ref="B44" r:id="rId45" xr:uid="{74DB9793-137B-42A0-BD5C-9C231C9F5E57}"/>
-    <hyperlink ref="B46" r:id="rId46" xr:uid="{501C1F86-E9B9-40D9-A6EB-A67AC1F830F8}"/>
-    <hyperlink ref="B47" r:id="rId47" xr:uid="{AC2A49CE-6DCF-43B7-A1E3-98EA5E214151}"/>
-    <hyperlink ref="B42" r:id="rId48" xr:uid="{E32B22C1-A70F-460E-9027-2CA66CBC18C7}"/>
-    <hyperlink ref="B45" r:id="rId49" xr:uid="{936A99D6-E403-44DD-BBB8-8353EF51D49C}"/>
-    <hyperlink ref="B48" r:id="rId50" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=533" xr:uid="{B572CA2A-0998-48CF-A1A3-DECBA268182C}"/>
-    <hyperlink ref="B49" r:id="rId51" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=533" xr:uid="{61298E67-31CB-4D38-837A-88DD28371CFF}"/>
-    <hyperlink ref="B50" r:id="rId52" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=533" xr:uid="{3EF788A3-2F17-4085-89BB-BA6F0901F610}"/>
-    <hyperlink ref="B51" r:id="rId53" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=533" xr:uid="{E14E7DE6-477A-4287-8302-8FF909892307}"/>
-    <hyperlink ref="B52" r:id="rId54" xr:uid="{15A5F4EC-192B-4D11-A734-AD76B23C914D}"/>
-    <hyperlink ref="B53" r:id="rId55" xr:uid="{4F5AA90C-70F8-404F-8C9D-76916C63E1CB}"/>
-    <hyperlink ref="B54" r:id="rId56" xr:uid="{62AD5925-066B-4E4A-9AC0-AD22FDD57A3E}"/>
-    <hyperlink ref="B55" r:id="rId57" xr:uid="{52E6840A-45AE-4676-96FA-B95D4BA89A64}"/>
-    <hyperlink ref="B72" r:id="rId58" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{FE2A5213-8D71-4B03-8A7F-92E7B8E74999}"/>
-    <hyperlink ref="B73" r:id="rId59" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{31932214-6FFD-4A94-86D4-DDB137E0CD36}"/>
-    <hyperlink ref="B74" r:id="rId60" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{389FBC41-196E-453F-9785-3B9C1DE08AC2}"/>
-    <hyperlink ref="B75" r:id="rId61" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{D199F469-9485-416C-B25C-B5DC840D8D88}"/>
-    <hyperlink ref="B76" r:id="rId62" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{C107FD22-81BA-444C-A1EC-CB754842EE0B}"/>
-    <hyperlink ref="B77" r:id="rId63" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{9759E087-C29E-4321-8E2E-672738DE7A57}"/>
-    <hyperlink ref="B78" r:id="rId64" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{9CAD9C31-2D7B-4E4D-AA7F-223D6810AD56}"/>
-    <hyperlink ref="B79" r:id="rId65" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{274EA78A-01A7-485D-AEEB-BAEDFD90EAB6}"/>
-    <hyperlink ref="B80" r:id="rId66" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{9C9AE614-C29F-4E51-A014-FF19643F3C7B}"/>
-    <hyperlink ref="B81" r:id="rId67" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{58887130-F7BB-4372-8532-E87A4E69C12A}"/>
-    <hyperlink ref="B82" r:id="rId68" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{DA24BB3B-9CE3-41C3-817C-74529CCD066D}"/>
-    <hyperlink ref="B83" r:id="rId69" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{4B11E8D3-4A05-4E7A-9799-712424A0090F}"/>
-    <hyperlink ref="B84" r:id="rId70" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{6E69A377-5F5A-4815-B9D7-DB2ED37951B0}"/>
-    <hyperlink ref="B85" r:id="rId71" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{5047B395-C0ED-4668-9870-87FED1D37E62}"/>
-    <hyperlink ref="B86" r:id="rId72" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{F4323351-EFB7-4B5A-BDEF-DD3098F726E0}"/>
-    <hyperlink ref="B88" r:id="rId73" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{CCD5AC48-0CEB-49B7-87E1-A6ABE8852D2D}"/>
-    <hyperlink ref="B91" r:id="rId74" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{AF4A062B-AA9C-479C-9DBC-5E50210CD30E}"/>
-    <hyperlink ref="B92" r:id="rId75" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{7DDCB644-950D-489C-AD7A-D90320A5FAAB}"/>
-    <hyperlink ref="B93" r:id="rId76" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{42FC56BA-D2D6-4CC4-96C0-B8F0C6B9CA81}"/>
-    <hyperlink ref="B89" r:id="rId77" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{689D09C4-65BF-45B7-AB9A-69CDB6606878}"/>
-    <hyperlink ref="B90" r:id="rId78" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{51278D8F-1343-496B-8650-DBCBAE42D38A}"/>
-    <hyperlink ref="B94" r:id="rId79" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{09E24297-A52B-44DD-9CA4-2A2AAFE39956}"/>
-    <hyperlink ref="B95" r:id="rId80" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{5561EFFA-0D5A-415F-A8A5-2711AA14FB73}"/>
-    <hyperlink ref="B96" r:id="rId81" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{7B710331-C430-49F2-BFC8-0C93F4D7E1F0}"/>
-    <hyperlink ref="B97" r:id="rId82" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{08E3AD13-0DBA-4D8E-A805-A4450D9062EB}"/>
-    <hyperlink ref="B98" r:id="rId83" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{5C9197CF-AFB0-49AC-A911-3036D2512433}"/>
-    <hyperlink ref="B99" r:id="rId84" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{BFE4F1B8-9FEB-498F-A336-348CB7BDECCC}"/>
-    <hyperlink ref="B100" r:id="rId85" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{F555A1BE-5A90-4FE6-A9B3-5EC707E5EBA7}"/>
-    <hyperlink ref="B101" r:id="rId86" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{FD519039-0AD9-4A39-82B5-6F61019D28F1}"/>
-    <hyperlink ref="B102" r:id="rId87" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{FC2E898F-D4AB-44F2-9768-2FE3BD21F3AC}"/>
-    <hyperlink ref="B103" r:id="rId88" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{35D39632-046A-4A64-879D-2DF364543D3C}"/>
-    <hyperlink ref="B104" r:id="rId89" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{B5B39F47-BE2C-47DC-85F7-0AE0D9326AE5}"/>
-    <hyperlink ref="B105" r:id="rId90" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{AFD9079D-1053-4967-B8E4-A4115C49794E}"/>
-    <hyperlink ref="B106" r:id="rId91" xr:uid="{98D8C048-73E2-4B74-9C91-8027BAA51572}"/>
-    <hyperlink ref="B107" r:id="rId92" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{14B44F57-D0CA-4E22-9F6B-61C58871BBFE}"/>
-    <hyperlink ref="B108" r:id="rId93" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{D5546628-C31D-44E6-B3DB-E58AEBEF5811}"/>
-    <hyperlink ref="B109" r:id="rId94" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{B5995808-DC3B-4493-A6D6-DEB19BF9FEED}"/>
-    <hyperlink ref="B110" r:id="rId95" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{B2AE95F6-543C-4432-AA3D-97E930AAA087}"/>
-    <hyperlink ref="B111" r:id="rId96" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{D4818254-CBAC-44FC-892F-27D8D21B53E4}"/>
-    <hyperlink ref="B112" r:id="rId97" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{57804D83-E8D5-4E71-8F1C-B67D736BDD17}"/>
-    <hyperlink ref="B31" r:id="rId98" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=535" xr:uid="{D5080FC5-7A43-4D05-8423-6DCEE8BB0ABA}"/>
-    <hyperlink ref="B32" r:id="rId99" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=535" xr:uid="{E4BE8183-6706-4015-93FD-FF7D6E0EA272}"/>
-    <hyperlink ref="B33" r:id="rId100" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=535" xr:uid="{6B854B8A-D2D7-4933-B84E-0C8EAE4CE3D3}"/>
-    <hyperlink ref="B34" r:id="rId101" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=535" xr:uid="{37880FA0-65B6-474E-8704-7EFAFEF6DFCC}"/>
-    <hyperlink ref="B35" r:id="rId102" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=535" xr:uid="{2BB25E74-97D0-403A-9F48-13CBBB6AAB06}"/>
-    <hyperlink ref="B36" r:id="rId103" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=535" xr:uid="{DC00C712-ABAF-4B82-9908-997BE242B26E}"/>
+    <hyperlink ref="B66" r:id="rId1" xr:uid="{413B3272-D99E-454A-8352-B9A52593D916}"/>
+    <hyperlink ref="B24" r:id="rId2" xr:uid="{0EC3263F-E445-4616-A541-4F9FDA788FCC}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{7D0B8D4C-6899-4B56-8EA1-1CEB3A5EF4D0}"/>
+    <hyperlink ref="B61" r:id="rId4" xr:uid="{35F55E37-857F-4B76-85E5-02C8997874CA}"/>
+    <hyperlink ref="B98" r:id="rId5" xr:uid="{3F2D6ED2-940F-458B-88E1-5A1B6B215BC1}"/>
+    <hyperlink ref="B35" r:id="rId6" xr:uid="{B2DE5D1F-1166-4863-8D0B-334FE5A4D725}"/>
+    <hyperlink ref="B46" r:id="rId7" xr:uid="{6938CEBA-6445-47AC-AC90-E2C93BC79E53}"/>
+    <hyperlink ref="B125" r:id="rId8" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=523" xr:uid="{29B5E415-9D0E-418B-AF87-04D1BAE27726}"/>
+    <hyperlink ref="B126" r:id="rId9" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=523" xr:uid="{8ABCEFC7-D08E-44AD-9A03-80559FB57AA7}"/>
+    <hyperlink ref="B127" r:id="rId10" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=523" xr:uid="{894FCD3E-6B48-4147-81D2-962ADA3A5BF5}"/>
+    <hyperlink ref="B128" r:id="rId11" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=523" xr:uid="{458398A0-EE8F-498D-99F3-EBF3E075342F}"/>
+    <hyperlink ref="B3" r:id="rId12" xr:uid="{EEE81DFF-ED2F-4AF9-BD1D-0851E248D1CA}"/>
+    <hyperlink ref="B4" r:id="rId13" xr:uid="{20F58D97-6C49-49DA-AC0E-A001593C067B}"/>
+    <hyperlink ref="B5" r:id="rId14" xr:uid="{B7D3E1F3-567D-4665-93B8-35BC4E8E981C}"/>
+    <hyperlink ref="B6" r:id="rId15" xr:uid="{884903EB-35AF-4054-8601-D00C5EF64A7A}"/>
+    <hyperlink ref="B7" r:id="rId16" xr:uid="{0565313D-8987-46F0-953E-ED09D6689F37}"/>
+    <hyperlink ref="B8" r:id="rId17" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=542" xr:uid="{8582CED3-4AD0-45BA-BC9D-B42AA6341519}"/>
+    <hyperlink ref="B9" r:id="rId18" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=542" xr:uid="{9DF4E807-CCF9-460C-A4FD-6A07AD9D6EDB}"/>
+    <hyperlink ref="B10" r:id="rId19" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=542" xr:uid="{563F3D2B-B7FA-4919-8791-3D0B60B3EC41}"/>
+    <hyperlink ref="B11" r:id="rId20" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=542" xr:uid="{2C40E45A-9C67-4524-A1C4-A47179AF4D24}"/>
+    <hyperlink ref="B12" r:id="rId21" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=542" xr:uid="{E5ABF007-2A3E-4CCC-81F4-839C39A361E3}"/>
+    <hyperlink ref="B13" r:id="rId22" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{7EE12212-32E6-4785-B8C7-45523DCFFD9F}"/>
+    <hyperlink ref="B14" r:id="rId23" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{18D03AA2-3249-4AEC-8610-0FC91C44B203}"/>
+    <hyperlink ref="B15" r:id="rId24" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{6AE59774-15C2-416F-BE28-97A4693D3B01}"/>
+    <hyperlink ref="B16" r:id="rId25" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{C8023F26-61FA-4030-B880-FFBD5F24EB8E}"/>
+    <hyperlink ref="B17" r:id="rId26" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{996EF2CD-771D-421D-83DD-EC0567C5603C}"/>
+    <hyperlink ref="B25" r:id="rId27" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=477" xr:uid="{4DA22B3F-A300-46C2-AEA3-9498610E1F8A}"/>
+    <hyperlink ref="B26" r:id="rId28" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=477" xr:uid="{9C232393-6CA3-451A-B064-F3F99B42076D}"/>
+    <hyperlink ref="B27" r:id="rId29" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=477" xr:uid="{5F87FFBC-B774-48D6-A7FF-067C22E2F681}"/>
+    <hyperlink ref="B28" r:id="rId30" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{8F4FA2A4-7B57-4D1E-8E6D-3828D6B0A545}"/>
+    <hyperlink ref="B29" r:id="rId31" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{A6AF2A75-D742-437E-BA01-41651E3D0F13}"/>
+    <hyperlink ref="B30" r:id="rId32" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{E067F5C8-64F5-4E7A-912D-D9536F6A165A}"/>
+    <hyperlink ref="B31" r:id="rId33" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{2D30943A-3364-4FD7-8128-468B112790EA}"/>
+    <hyperlink ref="B32" r:id="rId34" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{21568556-F323-4B73-83CF-5B00B04FDC93}"/>
+    <hyperlink ref="B33" r:id="rId35" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{A9FBC03A-BE86-4F2E-B3E8-FEFF96F5798A}"/>
+    <hyperlink ref="B34" r:id="rId36" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{30872622-3ECE-4241-AEDD-6D578CF04468}"/>
+    <hyperlink ref="B42" r:id="rId37" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{CDE3AD7D-FA76-4090-AB7B-7B4A2FC49972}"/>
+    <hyperlink ref="B43" r:id="rId38" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{FECC6EC3-9753-48B7-BFA1-4DD0911A997C}"/>
+    <hyperlink ref="B44" r:id="rId39" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{17B8B4E8-49F4-4568-9DD7-410D524CDB12}"/>
+    <hyperlink ref="B45" r:id="rId40" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{4E99AB37-96B5-4B9C-87A7-56D271A8E83A}"/>
+    <hyperlink ref="B48" r:id="rId41" xr:uid="{F242BF75-D16B-4A6F-ACB4-700B6B9F6158}"/>
+    <hyperlink ref="B49" r:id="rId42" xr:uid="{74DB9793-137B-42A0-BD5C-9C231C9F5E57}"/>
+    <hyperlink ref="B51" r:id="rId43" xr:uid="{501C1F86-E9B9-40D9-A6EB-A67AC1F830F8}"/>
+    <hyperlink ref="B52" r:id="rId44" xr:uid="{AC2A49CE-6DCF-43B7-A1E3-98EA5E214151}"/>
+    <hyperlink ref="B47" r:id="rId45" xr:uid="{E32B22C1-A70F-460E-9027-2CA66CBC18C7}"/>
+    <hyperlink ref="B50" r:id="rId46" xr:uid="{936A99D6-E403-44DD-BBB8-8353EF51D49C}"/>
+    <hyperlink ref="B53" r:id="rId47" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=533" xr:uid="{B572CA2A-0998-48CF-A1A3-DECBA268182C}"/>
+    <hyperlink ref="B54" r:id="rId48" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=533" xr:uid="{61298E67-31CB-4D38-837A-88DD28371CFF}"/>
+    <hyperlink ref="B55" r:id="rId49" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=533" xr:uid="{3EF788A3-2F17-4085-89BB-BA6F0901F610}"/>
+    <hyperlink ref="B56" r:id="rId50" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=533" xr:uid="{E14E7DE6-477A-4287-8302-8FF909892307}"/>
+    <hyperlink ref="B57" r:id="rId51" xr:uid="{15A5F4EC-192B-4D11-A734-AD76B23C914D}"/>
+    <hyperlink ref="B58" r:id="rId52" xr:uid="{4F5AA90C-70F8-404F-8C9D-76916C63E1CB}"/>
+    <hyperlink ref="B59" r:id="rId53" xr:uid="{62AD5925-066B-4E4A-9AC0-AD22FDD57A3E}"/>
+    <hyperlink ref="B60" r:id="rId54" xr:uid="{52E6840A-45AE-4676-96FA-B95D4BA89A64}"/>
+    <hyperlink ref="B83" r:id="rId55" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{FE2A5213-8D71-4B03-8A7F-92E7B8E74999}"/>
+    <hyperlink ref="B84" r:id="rId56" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{31932214-6FFD-4A94-86D4-DDB137E0CD36}"/>
+    <hyperlink ref="B85" r:id="rId57" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{389FBC41-196E-453F-9785-3B9C1DE08AC2}"/>
+    <hyperlink ref="B86" r:id="rId58" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{D199F469-9485-416C-B25C-B5DC840D8D88}"/>
+    <hyperlink ref="B87" r:id="rId59" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{C107FD22-81BA-444C-A1EC-CB754842EE0B}"/>
+    <hyperlink ref="B88" r:id="rId60" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{9759E087-C29E-4321-8E2E-672738DE7A57}"/>
+    <hyperlink ref="B89" r:id="rId61" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{9CAD9C31-2D7B-4E4D-AA7F-223D6810AD56}"/>
+    <hyperlink ref="B90" r:id="rId62" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{274EA78A-01A7-485D-AEEB-BAEDFD90EAB6}"/>
+    <hyperlink ref="B91" r:id="rId63" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{9C9AE614-C29F-4E51-A014-FF19643F3C7B}"/>
+    <hyperlink ref="B92" r:id="rId64" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{58887130-F7BB-4372-8532-E87A4E69C12A}"/>
+    <hyperlink ref="B93" r:id="rId65" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{DA24BB3B-9CE3-41C3-817C-74529CCD066D}"/>
+    <hyperlink ref="B94" r:id="rId66" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{4B11E8D3-4A05-4E7A-9799-712424A0090F}"/>
+    <hyperlink ref="B95" r:id="rId67" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{6E69A377-5F5A-4815-B9D7-DB2ED37951B0}"/>
+    <hyperlink ref="B96" r:id="rId68" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{5047B395-C0ED-4668-9870-87FED1D37E62}"/>
+    <hyperlink ref="B97" r:id="rId69" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{F4323351-EFB7-4B5A-BDEF-DD3098F726E0}"/>
+    <hyperlink ref="B100" r:id="rId70" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{CCD5AC48-0CEB-49B7-87E1-A6ABE8852D2D}"/>
+    <hyperlink ref="B103" r:id="rId71" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{AF4A062B-AA9C-479C-9DBC-5E50210CD30E}"/>
+    <hyperlink ref="B104" r:id="rId72" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{7DDCB644-950D-489C-AD7A-D90320A5FAAB}"/>
+    <hyperlink ref="B105" r:id="rId73" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{42FC56BA-D2D6-4CC4-96C0-B8F0C6B9CA81}"/>
+    <hyperlink ref="B101" r:id="rId74" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{689D09C4-65BF-45B7-AB9A-69CDB6606878}"/>
+    <hyperlink ref="B102" r:id="rId75" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{51278D8F-1343-496B-8650-DBCBAE42D38A}"/>
+    <hyperlink ref="B106" r:id="rId76" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{09E24297-A52B-44DD-9CA4-2A2AAFE39956}"/>
+    <hyperlink ref="B107" r:id="rId77" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{5561EFFA-0D5A-415F-A8A5-2711AA14FB73}"/>
+    <hyperlink ref="B108" r:id="rId78" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{7B710331-C430-49F2-BFC8-0C93F4D7E1F0}"/>
+    <hyperlink ref="B109" r:id="rId79" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{08E3AD13-0DBA-4D8E-A805-A4450D9062EB}"/>
+    <hyperlink ref="B110" r:id="rId80" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{5C9197CF-AFB0-49AC-A911-3036D2512433}"/>
+    <hyperlink ref="B111" r:id="rId81" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{BFE4F1B8-9FEB-498F-A336-348CB7BDECCC}"/>
+    <hyperlink ref="B112" r:id="rId82" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{F555A1BE-5A90-4FE6-A9B3-5EC707E5EBA7}"/>
+    <hyperlink ref="B113" r:id="rId83" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{FD519039-0AD9-4A39-82B5-6F61019D28F1}"/>
+    <hyperlink ref="B114" r:id="rId84" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{FC2E898F-D4AB-44F2-9768-2FE3BD21F3AC}"/>
+    <hyperlink ref="B115" r:id="rId85" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{35D39632-046A-4A64-879D-2DF364543D3C}"/>
+    <hyperlink ref="B116" r:id="rId86" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{B5B39F47-BE2C-47DC-85F7-0AE0D9326AE5}"/>
+    <hyperlink ref="B117" r:id="rId87" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{AFD9079D-1053-4967-B8E4-A4115C49794E}"/>
+    <hyperlink ref="B118" r:id="rId88" xr:uid="{98D8C048-73E2-4B74-9C91-8027BAA51572}"/>
+    <hyperlink ref="B119" r:id="rId89" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{14B44F57-D0CA-4E22-9F6B-61C58871BBFE}"/>
+    <hyperlink ref="B120" r:id="rId90" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{D5546628-C31D-44E6-B3DB-E58AEBEF5811}"/>
+    <hyperlink ref="B121" r:id="rId91" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{B5995808-DC3B-4493-A6D6-DEB19BF9FEED}"/>
+    <hyperlink ref="B122" r:id="rId92" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{B2AE95F6-543C-4432-AA3D-97E930AAA087}"/>
+    <hyperlink ref="B123" r:id="rId93" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{D4818254-CBAC-44FC-892F-27D8D21B53E4}"/>
+    <hyperlink ref="B124" r:id="rId94" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{57804D83-E8D5-4E71-8F1C-B67D736BDD17}"/>
+    <hyperlink ref="B36" r:id="rId95" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=535" xr:uid="{D5080FC5-7A43-4D05-8423-6DCEE8BB0ABA}"/>
+    <hyperlink ref="B37" r:id="rId96" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=535" xr:uid="{E4BE8183-6706-4015-93FD-FF7D6E0EA272}"/>
+    <hyperlink ref="B38" r:id="rId97" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=535" xr:uid="{6B854B8A-D2D7-4933-B84E-0C8EAE4CE3D3}"/>
+    <hyperlink ref="B39" r:id="rId98" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=535" xr:uid="{37880FA0-65B6-474E-8704-7EFAFEF6DFCC}"/>
+    <hyperlink ref="B40" r:id="rId99" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=535" xr:uid="{2BB25E74-97D0-403A-9F48-13CBBB6AAB06}"/>
+    <hyperlink ref="B41" r:id="rId100" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=535" xr:uid="{DC00C712-ABAF-4B82-9908-997BE242B26E}"/>
+    <hyperlink ref="B99" r:id="rId101" xr:uid="{006AA5C5-8F89-43B6-B527-7CA897C969E2}"/>
+    <hyperlink ref="B79" r:id="rId102" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=128" xr:uid="{2B512CAF-2BD2-49BE-AF79-F67B1B311102}"/>
+    <hyperlink ref="B80" r:id="rId103" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=128" xr:uid="{11A719D3-EC5D-49D1-8601-11DCF7314E51}"/>
+    <hyperlink ref="B81" r:id="rId104" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=128" xr:uid="{519D7A80-D249-4498-A34D-54BADE2AA7AE}"/>
+    <hyperlink ref="B82" r:id="rId105" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=128" xr:uid="{7E568234-12E2-4650-BE6B-B9B23064E77F}"/>
+    <hyperlink ref="B18" r:id="rId106" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{46BA6FA2-04DF-4555-9D17-83797EEDBA6E}"/>
+    <hyperlink ref="B19" r:id="rId107" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{2C120EC6-FBCB-47A9-9928-9C392B6D573F}"/>
+    <hyperlink ref="B20" r:id="rId108" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{E8271A08-3E61-41AB-8B1F-E2EC3278662E}"/>
+    <hyperlink ref="B21" r:id="rId109" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{663F9B2C-0C08-40FE-BA06-79459046F38A}"/>
+    <hyperlink ref="B22" r:id="rId110" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{CB0E5C47-E562-4B9A-95FF-5205836DD6FE}"/>
+    <hyperlink ref="B23" r:id="rId111" xr:uid="{B393145D-8CD0-482C-8208-0F63D87C4921}"/>
+    <hyperlink ref="B62" r:id="rId112" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=262" xr:uid="{F5CC118E-0F46-4E8E-B95A-C3233EFCF804}"/>
+    <hyperlink ref="B63" r:id="rId113" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=262" xr:uid="{A4FC6ED1-D1F6-46E6-AF8D-F0039BCF0348}"/>
+    <hyperlink ref="B64" r:id="rId114" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=262" xr:uid="{700FBCCD-79AF-45F7-80E4-5D8613A6954C}"/>
+    <hyperlink ref="B65" r:id="rId115" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=262" xr:uid="{6F268D3E-0A12-4E12-B010-CA02F1CC36A7}"/>
+    <hyperlink ref="B130" r:id="rId116" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{A6AF451E-BE1F-497C-A42A-CA3770A73899}"/>
+    <hyperlink ref="B131" r:id="rId117" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{8B49ED20-EBC1-4905-B4E1-2ABAEE30064E}"/>
+    <hyperlink ref="B132" r:id="rId118" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{34EF590D-C3EF-4381-8368-BCDD50CAFDAB}"/>
+    <hyperlink ref="B133" r:id="rId119" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{3A021F5A-6992-4D9A-8214-CA1133B7891C}"/>
+    <hyperlink ref="B134" r:id="rId120" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{A876C220-6BEE-445C-8788-042C41DF3696}"/>
+    <hyperlink ref="B135" r:id="rId121" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{7945E20C-6AD3-42E5-8AA1-4CED92B900FE}"/>
+    <hyperlink ref="B136" r:id="rId122" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{EC9C1B95-7DC8-421A-97A3-DD07C01A2E73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId104"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId123"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8438EFF-5E3A-4D3E-ADCA-F33A1A49F0FD}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4363,7 +4977,7 @@
     <col min="9" max="9" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>47</v>
       </c>
@@ -4388,11 +5002,11 @@
       <c r="H1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -4424,7 +5038,7 @@
         <v>1 PIT ALIAGA BARRERA ISAAC NOLBERTO</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -4456,7 +5070,7 @@
         <v>2 PIT ALVAREZ BERNAOLA LUIS ARMANDO</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -4488,18 +5102,18 @@
         <v>3 PIT AYBAR PEVE LEANDRO JOEL</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="22" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="12">
+        <v>15</v>
+      </c>
+      <c r="D5" s="12">
         <v>17</v>
-      </c>
-      <c r="D5" s="12">
-        <v>15</v>
       </c>
       <c r="E5" s="12">
         <f t="shared" si="0"/>
@@ -4507,9 +5121,11 @@
       </c>
       <c r="F5" s="12">
         <f t="shared" si="1"/>
-        <v>527</v>
-      </c>
-      <c r="G5" s="12"/>
+        <v>529</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>75</v>
+      </c>
       <c r="H5" s="12"/>
       <c r="I5" t="s">
         <v>77</v>
@@ -4519,11 +5135,11 @@
         <v>4 PIT BELLODAS CUBAS JOSE DOLORES</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="22" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="12">
@@ -4540,7 +5156,9 @@
         <f t="shared" si="1"/>
         <v>264</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="H6" s="12"/>
       <c r="I6" t="s">
         <v>77</v>
@@ -4550,7 +5168,7 @@
         <v>5 PIT BERROCAL CHUMBIAUCA JULIO ANTONIO</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -4582,7 +5200,7 @@
         <v>6 PIT CABRERA VIGIL CARLOS EUSEBIO</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -4614,11 +5232,11 @@
         <v>7 PIT COAQUIRA INCACARI ROBERTO</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="12"/>
@@ -4641,7 +5259,7 @@
         <v>8 PIT CUELLAR FERNANDEZ JOSÉ MARTÍN</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -4673,11 +5291,11 @@
         <v>9 PIT DAMIAN SALAZAR ROJAS</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="12">
@@ -4705,7 +5323,7 @@
         <v>10 PIT GARCIA RUIZ MARIA LUISA</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -4737,11 +5355,11 @@
         <v>11 PIT LEON TTACCA BETSABE</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="12">
@@ -4769,7 +5387,7 @@
         <v>12 PIT MATOS LIZANA JULIO CESAR</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -4800,12 +5418,13 @@
         <f t="shared" si="2"/>
         <v>13 PIT MONTERO RAVELO ALEXEI ARMANDO</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="12">
@@ -4822,7 +5441,9 @@
         <f t="shared" si="1"/>
         <v>526</v>
       </c>
-      <c r="G15" s="12"/>
+      <c r="G15" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="H15" s="12"/>
       <c r="I15" t="s">
         <v>77</v>
@@ -4832,7 +5453,7 @@
         <v>14 PIT ÑAÑEZ JAVIER NANCY</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -4868,20 +5489,26 @@
       <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="C17" s="12">
+        <v>8</v>
+      </c>
+      <c r="D17" s="12">
+        <v>8</v>
+      </c>
       <c r="E17" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="12"/>
+        <v>264</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="H17" s="12"/>
       <c r="I17" t="s">
         <v>77</v>
@@ -4927,7 +5554,7 @@
       <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="12">
@@ -4994,20 +5621,25 @@
       <c r="B21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="C21" s="12">
+        <v>8</v>
+      </c>
+      <c r="D21" s="12">
+        <v>8</v>
+      </c>
       <c r="E21" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F21" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" t="s">
-        <v>78</v>
+        <v>264</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="2"/>

--- a/EXCEL_TRABAJADO/2023-1cnl.xlsx
+++ b/EXCEL_TRABAJADO/2023-1cnl.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gians\Desktop\dev\UNDC_AUTOMATIZACION\EXCEL_TRABAJADO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01706F4A-C75D-448E-9C94-11F49872EA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072D2AA6-DA46-47F0-82B3-C8A41FC2501A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AC3D8E4D-96C0-40C7-9193-949C63F87DF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{AC3D8E4D-96C0-40C7-9193-949C63F87DF0}"/>
   </bookViews>
   <sheets>
     <sheet name="cargas" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cargas!$A$1:$H$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cargas!$A$1:$H$126</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja3!$A$1:$H$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="82">
   <si>
     <t>HORAE</t>
   </si>
@@ -390,7 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -423,8 +423,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="20" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -745,11 +746,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2442F8-A25A-4C8B-994C-1CDF0A0D4BA8}">
-  <dimension ref="A1:K219"/>
+  <dimension ref="A1:K217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D129" sqref="D129:D136"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,137 +1221,137 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="23">
-        <v>1</v>
-      </c>
-      <c r="E18" s="23">
-        <v>16</v>
-      </c>
-      <c r="F18" s="23" t="s">
+      <c r="C18" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="24">
+        <v>2</v>
+      </c>
+      <c r="E18" s="24">
+        <v>16</v>
+      </c>
+      <c r="F18" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="26">
+        <v>0.34375</v>
+      </c>
+      <c r="H18" s="26">
         <v>0.5</v>
       </c>
-      <c r="H18" s="25">
-        <v>0.6875</v>
-      </c>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="23">
-        <v>1</v>
-      </c>
-      <c r="E19" s="23">
-        <v>16</v>
-      </c>
-      <c r="F19" s="23" t="s">
+      <c r="C19" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="24">
+        <v>1</v>
+      </c>
+      <c r="E19" s="24">
+        <v>16</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="26">
+        <v>0.84375</v>
+      </c>
+      <c r="H19" s="26">
+        <v>0.90625</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="24">
+        <v>1</v>
+      </c>
+      <c r="E20" s="24">
+        <v>16</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="26">
+        <v>0.78125</v>
+      </c>
+      <c r="H20" s="26">
+        <v>0.9375</v>
+      </c>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="24">
+        <v>4</v>
+      </c>
+      <c r="E21" s="24">
+        <v>4</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="26">
+        <v>0.78125</v>
+      </c>
+      <c r="H21" s="26">
+        <v>0.9375</v>
+      </c>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="23">
+        <v>1</v>
+      </c>
+      <c r="E22" s="23">
+        <v>16</v>
+      </c>
+      <c r="F22" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="H19" s="25">
-        <v>0.65625</v>
-      </c>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="23">
-        <v>1</v>
-      </c>
-      <c r="E20" s="23">
-        <v>16</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="25">
-        <v>0.71875</v>
-      </c>
-      <c r="H20" s="25">
-        <v>0.78125</v>
-      </c>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="23">
-        <v>1</v>
-      </c>
-      <c r="E21" s="23">
-        <v>16</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="H21" s="25">
-        <v>0.5625</v>
-      </c>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="23">
-        <v>1</v>
-      </c>
-      <c r="E22" s="23">
-        <v>16</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="H22" s="25">
-        <v>0.8125</v>
+      <c r="G22" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.46875</v>
       </c>
       <c r="K22" s="1"/>
     </row>
@@ -1374,37 +1375,37 @@
         <v>39</v>
       </c>
       <c r="G23" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.71875</v>
+      </c>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="13">
+        <v>1</v>
+      </c>
+      <c r="E24" s="13">
+        <v>16</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="15">
         <v>0.34375</v>
       </c>
-      <c r="H23" s="2">
-        <v>0.46875</v>
-      </c>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="23">
-        <v>1</v>
-      </c>
-      <c r="E24" s="23">
-        <v>16</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0.59375</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0.71875</v>
+      <c r="H24" s="15">
+        <v>0.5</v>
       </c>
       <c r="K24" s="1"/>
     </row>
@@ -1425,13 +1426,13 @@
         <v>16</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G25" s="15">
         <v>0.34375</v>
       </c>
       <c r="H25" s="15">
-        <v>0.5</v>
+        <v>0.53125</v>
       </c>
       <c r="K25" s="1"/>
     </row>
@@ -1452,7 +1453,7 @@
         <v>16</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G26" s="15">
         <v>0.34375</v>
@@ -1463,29 +1464,29 @@
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>42</v>
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="13">
-        <v>1</v>
-      </c>
-      <c r="E27" s="13">
-        <v>16</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="15">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="2">
         <v>0.34375</v>
       </c>
-      <c r="H27" s="15">
-        <v>0.53125</v>
+      <c r="H27" s="2">
+        <v>0.59375</v>
       </c>
       <c r="K27" s="1"/>
     </row>
@@ -1506,13 +1507,13 @@
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G28" s="2">
         <v>0.34375</v>
       </c>
       <c r="H28" s="2">
-        <v>0.59375</v>
+        <v>0.5</v>
       </c>
       <c r="K28" s="1"/>
     </row>
@@ -1536,10 +1537,10 @@
         <v>39</v>
       </c>
       <c r="G29" s="2">
-        <v>0.34375</v>
+        <v>0.5625</v>
       </c>
       <c r="H29" s="2">
-        <v>0.5</v>
+        <v>0.6875</v>
       </c>
       <c r="K29" s="1"/>
     </row>
@@ -1563,10 +1564,10 @@
         <v>39</v>
       </c>
       <c r="G30" s="2">
-        <v>0.5625</v>
+        <v>0.75</v>
       </c>
       <c r="H30" s="2">
-        <v>0.6875</v>
+        <v>0.78125</v>
       </c>
       <c r="K30" s="1"/>
     </row>
@@ -1590,10 +1591,10 @@
         <v>39</v>
       </c>
       <c r="G31" s="2">
-        <v>0.75</v>
+        <v>0.78125</v>
       </c>
       <c r="H31" s="2">
-        <v>0.78125</v>
+        <v>0.8125</v>
       </c>
       <c r="K31" s="1"/>
     </row>
@@ -1617,10 +1618,10 @@
         <v>39</v>
       </c>
       <c r="G32" s="2">
-        <v>0.78125</v>
+        <v>0.8125</v>
       </c>
       <c r="H32" s="2">
-        <v>0.8125</v>
+        <v>0.84375</v>
       </c>
       <c r="K32" s="1"/>
     </row>
@@ -1641,58 +1642,58 @@
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G33" s="2">
-        <v>0.8125</v>
+        <v>0.34375</v>
       </c>
       <c r="H33" s="2">
-        <v>0.84375</v>
+        <v>0.4375</v>
       </c>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>20</v>
+      <c r="A34" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>16</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="2">
-        <v>0.34375</v>
-      </c>
-      <c r="H34" s="2">
+      <c r="G35" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="H35" s="2">
         <v>0.4375</v>
       </c>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1712,13 +1713,13 @@
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36" s="2">
-        <v>0.3125</v>
+        <v>0.59375</v>
       </c>
       <c r="H36" s="2">
-        <v>0.4375</v>
+        <v>0.75</v>
       </c>
       <c r="K36" s="1"/>
     </row>
@@ -1739,13 +1740,13 @@
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G37" s="2">
-        <v>0.59375</v>
+        <v>0.3125</v>
       </c>
       <c r="H37" s="2">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="K37" s="1"/>
     </row>
@@ -1769,10 +1770,10 @@
         <v>40</v>
       </c>
       <c r="G38" s="2">
-        <v>0.3125</v>
+        <v>0.53125</v>
       </c>
       <c r="H38" s="2">
-        <v>0.375</v>
+        <v>0.5625</v>
       </c>
       <c r="K38" s="1"/>
     </row>
@@ -1793,13 +1794,13 @@
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G39" s="2">
-        <v>0.53125</v>
+        <v>0.34375</v>
       </c>
       <c r="H39" s="2">
-        <v>0.5625</v>
+        <v>0.375</v>
       </c>
       <c r="K39" s="1"/>
     </row>
@@ -1823,37 +1824,37 @@
         <v>38</v>
       </c>
       <c r="G40" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="13">
+        <v>1</v>
+      </c>
+      <c r="E41" s="13">
+        <v>16</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="15">
         <v>0.34375</v>
       </c>
-      <c r="H40" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>16</v>
-      </c>
-      <c r="F41" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="2">
-        <v>0.53125</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0.59375</v>
+      <c r="H41" s="15">
+        <v>0.5</v>
       </c>
       <c r="K41" s="1"/>
     </row>
@@ -1874,13 +1875,13 @@
         <v>16</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G42" s="15">
         <v>0.34375</v>
       </c>
       <c r="H42" s="15">
-        <v>0.5</v>
+        <v>0.46875</v>
       </c>
       <c r="K42" s="1"/>
     </row>
@@ -1904,10 +1905,10 @@
         <v>35</v>
       </c>
       <c r="G43" s="15">
-        <v>0.34375</v>
+        <v>0.59375</v>
       </c>
       <c r="H43" s="15">
-        <v>0.46875</v>
+        <v>0.65625</v>
       </c>
       <c r="K43" s="1"/>
     </row>
@@ -1928,40 +1929,40 @@
         <v>16</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G44" s="15">
-        <v>0.59375</v>
+        <v>0.34375</v>
       </c>
       <c r="H44" s="15">
-        <v>0.65625</v>
+        <v>0.46875</v>
       </c>
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>64</v>
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="13">
-        <v>1</v>
-      </c>
-      <c r="E45" s="13">
-        <v>16</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G45" s="15">
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>16</v>
+      </c>
+      <c r="F45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="2">
         <v>0.34375</v>
       </c>
-      <c r="H45" s="15">
-        <v>0.46875</v>
+      <c r="H45" s="2">
+        <v>0.5</v>
       </c>
       <c r="K45" s="1"/>
     </row>
@@ -1982,7 +1983,7 @@
         <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G46" s="2">
         <v>0.34375</v>
@@ -2012,10 +2013,10 @@
         <v>39</v>
       </c>
       <c r="G47" s="2">
-        <v>0.34375</v>
+        <v>0.59375</v>
       </c>
       <c r="H47" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K47" s="1"/>
     </row>
@@ -2036,13 +2037,13 @@
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G48" s="2">
-        <v>0.59375</v>
+        <v>0.34375</v>
       </c>
       <c r="H48" s="2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K48" s="1"/>
     </row>
@@ -2066,10 +2067,10 @@
         <v>35</v>
       </c>
       <c r="G49" s="2">
-        <v>0.34375</v>
+        <v>0.59375</v>
       </c>
       <c r="H49" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K49" s="1"/>
     </row>
@@ -2090,7 +2091,7 @@
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G50" s="2">
         <v>0.59375</v>
@@ -2117,7 +2118,7 @@
         <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G51" s="2">
         <v>0.59375</v>
@@ -2128,29 +2129,29 @@
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>24</v>
+      <c r="A52" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>16</v>
-      </c>
-      <c r="F52" t="s">
-        <v>40</v>
-      </c>
-      <c r="G52" s="2">
-        <v>0.59375</v>
-      </c>
-      <c r="H52" s="2">
+      <c r="D52" s="13">
+        <v>1</v>
+      </c>
+      <c r="E52" s="13">
+        <v>16</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="15">
         <v>0.75</v>
+      </c>
+      <c r="H52" s="15">
+        <v>0.84375</v>
       </c>
       <c r="K52" s="1"/>
     </row>
@@ -2171,13 +2172,13 @@
         <v>16</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G53" s="15">
         <v>0.75</v>
       </c>
       <c r="H53" s="15">
-        <v>0.84375</v>
+        <v>0.8125</v>
       </c>
       <c r="K53" s="1"/>
     </row>
@@ -2198,10 +2199,10 @@
         <v>16</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G54" s="15">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="H54" s="15">
         <v>0.8125</v>
@@ -2225,40 +2226,40 @@
         <v>16</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G55" s="15">
         <v>0.5</v>
       </c>
       <c r="H55" s="15">
-        <v>0.8125</v>
+        <v>0.59375</v>
       </c>
       <c r="K55" s="1"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>14</v>
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D56" s="13">
-        <v>1</v>
-      </c>
-      <c r="E56" s="13">
-        <v>16</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G56" s="15">
+      <c r="D56">
+        <v>7</v>
+      </c>
+      <c r="E56">
+        <v>16</v>
+      </c>
+      <c r="F56" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="H56" s="2">
         <v>0.5</v>
-      </c>
-      <c r="H56" s="15">
-        <v>0.59375</v>
       </c>
       <c r="K56" s="1"/>
     </row>
@@ -2273,19 +2274,19 @@
         <v>68</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E57">
         <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G57" s="2">
-        <v>0.3125</v>
+        <v>0.5625</v>
       </c>
       <c r="H57" s="2">
-        <v>0.5</v>
+        <v>0.59375</v>
       </c>
       <c r="K57" s="1"/>
     </row>
@@ -2300,7 +2301,7 @@
         <v>68</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E58">
         <v>16</v>
@@ -2309,10 +2310,10 @@
         <v>35</v>
       </c>
       <c r="G58" s="2">
-        <v>0.5625</v>
+        <v>0.59375</v>
       </c>
       <c r="H58" s="2">
-        <v>0.59375</v>
+        <v>0.625</v>
       </c>
       <c r="K58" s="1"/>
     </row>
@@ -2327,28 +2328,28 @@
         <v>68</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E59">
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G59" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="H59" s="2">
         <v>0.59375</v>
-      </c>
-      <c r="H59" s="2">
-        <v>0.625</v>
       </c>
       <c r="K59" s="1"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>68</v>
@@ -2360,22 +2361,22 @@
         <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H60" s="2">
         <v>0.625</v>
-      </c>
-      <c r="H60" s="2">
-        <v>0.71875</v>
       </c>
       <c r="K60" s="1"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>68</v>
@@ -2387,13 +2388,13 @@
         <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G61" s="2">
-        <v>0.53125</v>
+        <v>0.75</v>
       </c>
       <c r="H61" s="2">
-        <v>0.59375</v>
+        <v>0.875</v>
       </c>
       <c r="K61" s="1"/>
     </row>
@@ -2414,13 +2415,13 @@
         <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G62" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H62" s="2">
-        <v>0.625</v>
+        <v>0.84375</v>
       </c>
       <c r="K62" s="1"/>
     </row>
@@ -2441,67 +2442,67 @@
         <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G63" s="2">
         <v>0.75</v>
       </c>
       <c r="H63" s="2">
-        <v>0.875</v>
+        <v>0.84375</v>
       </c>
       <c r="K63" s="1"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>6</v>
+      <c r="A64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>16</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="D64" s="9">
+        <v>1</v>
+      </c>
+      <c r="E64" s="9">
+        <v>16</v>
+      </c>
+      <c r="F64" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G64" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="H64" s="2">
-        <v>0.84375</v>
+      <c r="G64" s="11">
+        <v>0.46875</v>
+      </c>
+      <c r="H64" s="11">
+        <v>0.53125</v>
       </c>
       <c r="K64" s="1"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>6</v>
+      <c r="A65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>16</v>
-      </c>
-      <c r="F65" t="s">
-        <v>36</v>
-      </c>
-      <c r="G65" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="H65" s="2">
-        <v>0.84375</v>
+      <c r="D65" s="9">
+        <v>1</v>
+      </c>
+      <c r="E65" s="9">
+        <v>16</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="H65" s="11">
+        <v>0.4375</v>
       </c>
       <c r="K65" s="1"/>
     </row>
@@ -2522,13 +2523,13 @@
         <v>16</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G66" s="11">
+        <v>0.40625</v>
+      </c>
+      <c r="H66" s="11">
         <v>0.46875</v>
-      </c>
-      <c r="H66" s="11">
-        <v>0.53125</v>
       </c>
       <c r="K66" s="1"/>
     </row>
@@ -2549,13 +2550,13 @@
         <v>16</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G67" s="11">
-        <v>0.375</v>
+        <v>0.40625</v>
       </c>
       <c r="H67" s="11">
-        <v>0.4375</v>
+        <v>0.46875</v>
       </c>
       <c r="K67" s="1"/>
     </row>
@@ -2576,7 +2577,7 @@
         <v>16</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G68" s="11">
         <v>0.40625</v>
@@ -2603,13 +2604,13 @@
         <v>16</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G69" s="11">
-        <v>0.40625</v>
+        <v>0.65625</v>
       </c>
       <c r="H69" s="11">
-        <v>0.46875</v>
+        <v>0.71875</v>
       </c>
       <c r="K69" s="1"/>
     </row>
@@ -2630,13 +2631,13 @@
         <v>16</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G70" s="11">
-        <v>0.40625</v>
+        <v>0.625</v>
       </c>
       <c r="H70" s="11">
-        <v>0.46875</v>
+        <v>0.6875</v>
       </c>
       <c r="K70" s="1"/>
     </row>
@@ -2657,10 +2658,10 @@
         <v>16</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G71" s="11">
-        <v>0.65625</v>
+        <v>0.6875</v>
       </c>
       <c r="H71" s="11">
         <v>0.71875</v>
@@ -2684,13 +2685,13 @@
         <v>16</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G72" s="11">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="H72" s="11">
-        <v>0.6875</v>
+        <v>0.8125</v>
       </c>
       <c r="K72" s="1"/>
     </row>
@@ -2714,10 +2715,10 @@
         <v>35</v>
       </c>
       <c r="G73" s="11">
-        <v>0.6875</v>
+        <v>0.71875</v>
       </c>
       <c r="H73" s="11">
-        <v>0.71875</v>
+        <v>0.84375</v>
       </c>
       <c r="K73" s="1"/>
     </row>
@@ -2738,13 +2739,13 @@
         <v>16</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G74" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="H74" s="11">
         <v>0.75</v>
-      </c>
-      <c r="H74" s="11">
-        <v>0.8125</v>
       </c>
       <c r="K74" s="1"/>
     </row>
@@ -2765,13 +2766,13 @@
         <v>16</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G75" s="11">
-        <v>0.71875</v>
+        <v>0.625</v>
       </c>
       <c r="H75" s="11">
-        <v>0.84375</v>
+        <v>0.6875</v>
       </c>
       <c r="K75" s="1"/>
     </row>
@@ -2792,67 +2793,67 @@
         <v>16</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G76" s="11">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="H76" s="11">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="K76" s="1"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>4</v>
+      <c r="A77" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D77" s="9">
-        <v>1</v>
-      </c>
-      <c r="E77" s="9">
-        <v>16</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G77" s="11">
-        <v>0.625</v>
-      </c>
-      <c r="H77" s="11">
-        <v>0.6875</v>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>16</v>
+      </c>
+      <c r="F77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G77" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0.84375</v>
       </c>
       <c r="K77" s="1"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>4</v>
+      <c r="A78" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D78" s="9">
-        <v>1</v>
-      </c>
-      <c r="E78" s="9">
-        <v>16</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G78" s="11">
-        <v>0.6875</v>
-      </c>
-      <c r="H78" s="11">
-        <v>0.8125</v>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>16</v>
+      </c>
+      <c r="F78" t="s">
+        <v>35</v>
+      </c>
+      <c r="G78" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0.875</v>
       </c>
       <c r="K78" s="1"/>
     </row>
@@ -2873,13 +2874,13 @@
         <v>16</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G79" s="2">
         <v>0.8125</v>
       </c>
       <c r="H79" s="2">
-        <v>0.84375</v>
+        <v>0.90625</v>
       </c>
       <c r="K79" s="1"/>
     </row>
@@ -2900,67 +2901,67 @@
         <v>16</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G80" s="2">
-        <v>0.84375</v>
+        <v>0.8125</v>
       </c>
       <c r="H80" s="2">
-        <v>0.875</v>
+        <v>0.90625</v>
       </c>
       <c r="K80" s="1"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>48</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>58</v>
+      <c r="A81" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>16</v>
-      </c>
-      <c r="F81" t="s">
-        <v>36</v>
-      </c>
-      <c r="G81" s="2">
+      <c r="D81" s="13">
+        <v>1</v>
+      </c>
+      <c r="E81" s="13">
+        <v>16</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G81" s="15">
+        <v>0.4375</v>
+      </c>
+      <c r="H81" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" s="13">
+        <v>1</v>
+      </c>
+      <c r="E82" s="13">
+        <v>16</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G82" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="H82" s="15">
         <v>0.8125</v>
-      </c>
-      <c r="H81" s="2">
-        <v>0.90625</v>
-      </c>
-      <c r="K81" s="1"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>48</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>16</v>
-      </c>
-      <c r="F82" t="s">
-        <v>40</v>
-      </c>
-      <c r="G82" s="2">
-        <v>0.8125</v>
-      </c>
-      <c r="H82" s="2">
-        <v>0.90625</v>
       </c>
       <c r="K82" s="1"/>
     </row>
@@ -2981,13 +2982,13 @@
         <v>16</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G83" s="15">
-        <v>0.4375</v>
+        <v>0.5625</v>
       </c>
       <c r="H83" s="15">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K83" s="1"/>
     </row>
@@ -3008,67 +3009,67 @@
         <v>16</v>
       </c>
       <c r="F84" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" s="15">
+        <v>0.78125</v>
+      </c>
+      <c r="H84" s="15">
+        <v>0.84375</v>
+      </c>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>16</v>
+      </c>
+      <c r="F85" t="s">
         <v>34</v>
       </c>
-      <c r="G84" s="15">
-        <v>0.75</v>
-      </c>
-      <c r="H84" s="15">
-        <v>0.8125</v>
-      </c>
-      <c r="K84" s="1"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D85" s="13">
-        <v>1</v>
-      </c>
-      <c r="E85" s="13">
-        <v>16</v>
-      </c>
-      <c r="F85" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G85" s="15">
-        <v>0.5625</v>
-      </c>
-      <c r="H85" s="15">
-        <v>0.75</v>
+      <c r="G85" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="H85" s="2">
+        <v>0.5</v>
       </c>
       <c r="K85" s="1"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>62</v>
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D86" s="13">
-        <v>1</v>
-      </c>
-      <c r="E86" s="13">
-        <v>16</v>
-      </c>
-      <c r="F86" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G86" s="15">
-        <v>0.78125</v>
-      </c>
-      <c r="H86" s="15">
-        <v>0.84375</v>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>16</v>
+      </c>
+      <c r="F86" t="s">
+        <v>34</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H86" s="2">
+        <v>0.65625</v>
       </c>
       <c r="K86" s="1"/>
     </row>
@@ -3092,10 +3093,10 @@
         <v>34</v>
       </c>
       <c r="G87" s="2">
-        <v>0.34375</v>
+        <v>0.65625</v>
       </c>
       <c r="H87" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K87" s="1"/>
     </row>
@@ -3116,13 +3117,13 @@
         <v>16</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G88" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="H88" s="2">
         <v>0.5</v>
-      </c>
-      <c r="H88" s="2">
-        <v>0.65625</v>
       </c>
       <c r="K88" s="1"/>
     </row>
@@ -3143,13 +3144,13 @@
         <v>16</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G89" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H89" s="2">
         <v>0.65625</v>
-      </c>
-      <c r="H89" s="2">
-        <v>0.75</v>
       </c>
       <c r="K89" s="1"/>
     </row>
@@ -3170,13 +3171,13 @@
         <v>16</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G90" s="2">
-        <v>0.34375</v>
+        <v>0.5</v>
       </c>
       <c r="H90" s="2">
-        <v>0.5</v>
+        <v>0.53125</v>
       </c>
       <c r="K90" s="1"/>
     </row>
@@ -3197,13 +3198,13 @@
         <v>16</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G91" s="2">
-        <v>0.5</v>
+        <v>0.71875</v>
       </c>
       <c r="H91" s="2">
-        <v>0.65625</v>
+        <v>0.75</v>
       </c>
       <c r="K91" s="1"/>
     </row>
@@ -3224,67 +3225,67 @@
         <v>16</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G92" s="2">
-        <v>0.5</v>
+        <v>0.71875</v>
       </c>
       <c r="H92" s="2">
-        <v>0.53125</v>
+        <v>0.75</v>
       </c>
       <c r="K92" s="1"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>9</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>10</v>
+      <c r="A93" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93">
-        <v>16</v>
-      </c>
-      <c r="F93" t="s">
-        <v>35</v>
-      </c>
-      <c r="G93" s="2">
-        <v>0.71875</v>
-      </c>
-      <c r="H93" s="2">
+      <c r="D93" s="13">
+        <v>1</v>
+      </c>
+      <c r="E93" s="13">
+        <v>16</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G93" s="15">
         <v>0.75</v>
       </c>
+      <c r="H93" s="15">
+        <v>0.84375</v>
+      </c>
       <c r="K93" s="1"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>9</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>10</v>
+      <c r="A94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94">
-        <v>16</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="D94" s="13">
+        <v>1</v>
+      </c>
+      <c r="E94" s="13">
+        <v>16</v>
+      </c>
+      <c r="F94" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G94" s="2">
-        <v>0.71875</v>
-      </c>
-      <c r="H94" s="2">
-        <v>0.75</v>
+      <c r="G94" s="15">
+        <v>0.84375</v>
+      </c>
+      <c r="H94" s="15">
+        <v>0.90625</v>
       </c>
       <c r="K94" s="1"/>
     </row>
@@ -3305,22 +3306,22 @@
         <v>16</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G95" s="15">
-        <v>0.75</v>
+        <v>0.53125</v>
       </c>
       <c r="H95" s="15">
-        <v>0.84375</v>
+        <v>0.625</v>
       </c>
       <c r="K95" s="1"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B96" s="14" t="s">
-        <v>67</v>
+      <c r="A96" t="s">
+        <v>56</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>68</v>
@@ -3332,22 +3333,22 @@
         <v>16</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G96" s="15">
-        <v>0.84375</v>
-      </c>
-      <c r="H96" s="15">
-        <v>0.90625</v>
+        <v>39</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0.78125</v>
+      </c>
+      <c r="H96" s="2">
+        <v>0.875</v>
       </c>
       <c r="K96" s="1"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>67</v>
+      <c r="A97" t="s">
+        <v>56</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>68</v>
@@ -3361,20 +3362,20 @@
       <c r="F97" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G97" s="15">
+      <c r="G97" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="H97" s="2">
         <v>0.53125</v>
       </c>
-      <c r="H97" s="15">
-        <v>0.625</v>
-      </c>
       <c r="K97" s="1"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>56</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>66</v>
+      <c r="A98" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>68</v>
@@ -3386,22 +3387,22 @@
         <v>16</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G98" s="2">
-        <v>0.78125</v>
-      </c>
-      <c r="H98" s="2">
-        <v>0.875</v>
+        <v>36</v>
+      </c>
+      <c r="G98" s="15">
+        <v>0.3125</v>
+      </c>
+      <c r="H98" s="15">
+        <v>0.46875</v>
       </c>
       <c r="K98" s="1"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>56</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>66</v>
+      <c r="A99" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C99" s="13" t="s">
         <v>68</v>
@@ -3413,13 +3414,13 @@
         <v>16</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G99" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="H99" s="2">
-        <v>0.53125</v>
+        <v>36</v>
+      </c>
+      <c r="G99" s="15">
+        <v>0.46875</v>
+      </c>
+      <c r="H99" s="15">
+        <v>0.5</v>
       </c>
       <c r="K99" s="1"/>
     </row>
@@ -3440,13 +3441,13 @@
         <v>16</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G100" s="15">
         <v>0.3125</v>
       </c>
       <c r="H100" s="15">
-        <v>0.46875</v>
+        <v>0.40625</v>
       </c>
       <c r="K100" s="1"/>
     </row>
@@ -3467,13 +3468,13 @@
         <v>16</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G101" s="15">
+        <v>0.40625</v>
+      </c>
+      <c r="H101" s="15">
         <v>0.46875</v>
-      </c>
-      <c r="H101" s="15">
-        <v>0.5</v>
       </c>
       <c r="K101" s="1"/>
     </row>
@@ -3497,10 +3498,10 @@
         <v>40</v>
       </c>
       <c r="G102" s="15">
-        <v>0.3125</v>
+        <v>0.46875</v>
       </c>
       <c r="H102" s="15">
-        <v>0.40625</v>
+        <v>0.5</v>
       </c>
       <c r="K102" s="1"/>
     </row>
@@ -3521,67 +3522,67 @@
         <v>16</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G103" s="15">
-        <v>0.40625</v>
+        <v>0.4375</v>
       </c>
       <c r="H103" s="15">
-        <v>0.46875</v>
+        <v>0.5625</v>
       </c>
       <c r="K103" s="1"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>28</v>
+      <c r="A104" t="s">
+        <v>49</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D104" s="13">
-        <v>1</v>
-      </c>
-      <c r="E104" s="13">
-        <v>16</v>
-      </c>
-      <c r="F104" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G104" s="15">
-        <v>0.46875</v>
-      </c>
-      <c r="H104" s="15">
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>16</v>
+      </c>
+      <c r="F104" t="s">
+        <v>34</v>
+      </c>
+      <c r="G104" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="H104" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>49</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>16</v>
+      </c>
+      <c r="F105" t="s">
+        <v>34</v>
+      </c>
+      <c r="G105" s="2">
         <v>0.5</v>
       </c>
-      <c r="K104" s="1"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D105" s="13">
-        <v>1</v>
-      </c>
-      <c r="E105" s="13">
-        <v>16</v>
-      </c>
-      <c r="F105" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G105" s="15">
-        <v>0.4375</v>
-      </c>
-      <c r="H105" s="15">
-        <v>0.5625</v>
+      <c r="H105" s="2">
+        <v>0.625</v>
       </c>
       <c r="K105" s="1"/>
     </row>
@@ -3602,66 +3603,66 @@
         <v>16</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G106" s="2">
         <v>0.34375</v>
       </c>
       <c r="H106" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K106" s="1"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" s="13">
+        <v>1</v>
+      </c>
+      <c r="E107" s="13">
+        <v>16</v>
+      </c>
+      <c r="F107" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G107" s="15">
+        <v>0.34375</v>
+      </c>
+      <c r="H107" s="15">
         <v>0.4375</v>
       </c>
-      <c r="K106" s="1"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>49</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-      <c r="E107">
-        <v>16</v>
-      </c>
-      <c r="F107" t="s">
+      <c r="K107" s="1"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" s="13">
+        <v>1</v>
+      </c>
+      <c r="E108" s="13">
+        <v>16</v>
+      </c>
+      <c r="F108" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G107" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H107" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="K107" s="1"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>49</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
-      <c r="E108">
-        <v>16</v>
-      </c>
-      <c r="F108" t="s">
-        <v>36</v>
-      </c>
-      <c r="G108" s="2">
-        <v>0.34375</v>
-      </c>
-      <c r="H108" s="2">
+      <c r="G108" s="15">
+        <v>0.4375</v>
+      </c>
+      <c r="H108" s="15">
         <v>0.5</v>
       </c>
       <c r="K108" s="1"/>
@@ -3686,10 +3687,10 @@
         <v>34</v>
       </c>
       <c r="G109" s="15">
-        <v>0.34375</v>
+        <v>0.5</v>
       </c>
       <c r="H109" s="15">
-        <v>0.4375</v>
+        <v>0.5625</v>
       </c>
       <c r="K109" s="1"/>
     </row>
@@ -3710,13 +3711,13 @@
         <v>16</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G110" s="15">
-        <v>0.4375</v>
+        <v>0.34375</v>
       </c>
       <c r="H110" s="15">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
       <c r="K110" s="1"/>
     </row>
@@ -3737,13 +3738,13 @@
         <v>16</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G111" s="15">
-        <v>0.5</v>
+        <v>0.34375</v>
       </c>
       <c r="H111" s="15">
-        <v>0.5625</v>
+        <v>0.40625</v>
       </c>
       <c r="K111" s="1"/>
     </row>
@@ -3764,13 +3765,13 @@
         <v>16</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G112" s="15">
-        <v>0.34375</v>
+        <v>0.40625</v>
       </c>
       <c r="H112" s="15">
-        <v>0.5625</v>
+        <v>0.46875</v>
       </c>
       <c r="K112" s="1"/>
     </row>
@@ -3794,10 +3795,10 @@
         <v>35</v>
       </c>
       <c r="G113" s="15">
-        <v>0.34375</v>
+        <v>0.46875</v>
       </c>
       <c r="H113" s="15">
-        <v>0.40625</v>
+        <v>0.53125</v>
       </c>
       <c r="K113" s="1"/>
     </row>
@@ -3821,10 +3822,10 @@
         <v>35</v>
       </c>
       <c r="G114" s="15">
-        <v>0.40625</v>
+        <v>0.53125</v>
       </c>
       <c r="H114" s="15">
-        <v>0.46875</v>
+        <v>0.5625</v>
       </c>
       <c r="K114" s="1"/>
     </row>
@@ -3845,211 +3846,211 @@
         <v>16</v>
       </c>
       <c r="F115" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G115" s="15">
+        <v>0.3125</v>
+      </c>
+      <c r="H115" s="15">
+        <v>0.5625</v>
+      </c>
+      <c r="K115" s="1"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>16</v>
+      </c>
+      <c r="F116" t="s">
+        <v>36</v>
+      </c>
+      <c r="G116" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="H116" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="K116" s="1"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" s="17">
+        <v>1</v>
+      </c>
+      <c r="E117" s="17">
+        <v>16</v>
+      </c>
+      <c r="F117" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G117" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="H117" s="19">
+        <v>0.4375</v>
+      </c>
+      <c r="K117" s="1"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" s="17">
+        <v>1</v>
+      </c>
+      <c r="E118" s="17">
+        <v>16</v>
+      </c>
+      <c r="F118" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G118" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="H118" s="19">
+        <v>0.65625</v>
+      </c>
+      <c r="K118" s="1"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" s="17">
+        <v>1</v>
+      </c>
+      <c r="E119" s="17">
+        <v>16</v>
+      </c>
+      <c r="F119" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G115" s="15">
-        <v>0.46875</v>
-      </c>
-      <c r="H115" s="15">
-        <v>0.53125</v>
-      </c>
-      <c r="K115" s="1"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C116" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D116" s="13">
-        <v>1</v>
-      </c>
-      <c r="E116" s="13">
-        <v>16</v>
-      </c>
-      <c r="F116" s="13" t="s">
+      <c r="G119" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="H119" s="19">
+        <v>0.4375</v>
+      </c>
+      <c r="K119" s="1"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" s="17">
+        <v>1</v>
+      </c>
+      <c r="E120" s="17">
+        <v>16</v>
+      </c>
+      <c r="F120" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G116" s="15">
-        <v>0.53125</v>
-      </c>
-      <c r="H116" s="15">
+      <c r="G120" s="19">
         <v>0.5625</v>
       </c>
-      <c r="K116" s="1"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B117" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C117" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D117" s="13">
-        <v>1</v>
-      </c>
-      <c r="E117" s="13">
-        <v>16</v>
-      </c>
-      <c r="F117" s="13" t="s">
+      <c r="H120" s="19">
+        <v>0.625</v>
+      </c>
+      <c r="K120" s="1"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B121" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" s="17">
+        <v>1</v>
+      </c>
+      <c r="E121" s="17">
+        <v>16</v>
+      </c>
+      <c r="F121" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G121" s="19">
+        <v>0.34375</v>
+      </c>
+      <c r="H121" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K121" s="1"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" s="17">
+        <v>1</v>
+      </c>
+      <c r="E122" s="17">
+        <v>16</v>
+      </c>
+      <c r="F122" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G117" s="15">
-        <v>0.3125</v>
-      </c>
-      <c r="H117" s="15">
-        <v>0.5625</v>
-      </c>
-      <c r="K117" s="1"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>7</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-      <c r="E118">
-        <v>16</v>
-      </c>
-      <c r="F118" t="s">
-        <v>36</v>
-      </c>
-      <c r="G118" s="2">
-        <v>0.40625</v>
-      </c>
-      <c r="H118" s="2">
-        <v>0.46875</v>
-      </c>
-      <c r="K118" s="1"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>17</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-      <c r="E119">
-        <v>16</v>
-      </c>
-      <c r="F119" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G119" s="2">
+      <c r="G122" s="19">
         <v>0.375</v>
       </c>
-      <c r="H119" s="2">
+      <c r="H122" s="19">
         <v>0.4375</v>
-      </c>
-      <c r="K119" s="1"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>17</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C120" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-      <c r="E120">
-        <v>16</v>
-      </c>
-      <c r="F120" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G120" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H120" s="2">
-        <v>0.65625</v>
-      </c>
-      <c r="K120" s="1"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>17</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-      <c r="E121">
-        <v>16</v>
-      </c>
-      <c r="F121" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G121" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="H121" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="K121" s="1"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>17</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D122">
-        <v>1</v>
-      </c>
-      <c r="E122">
-        <v>16</v>
-      </c>
-      <c r="F122" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G122" s="2">
-        <v>0.5625</v>
-      </c>
-      <c r="H122" s="2">
-        <v>0.625</v>
       </c>
       <c r="K122" s="1"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C123" s="13" t="s">
         <v>68</v>
@@ -4060,23 +4061,23 @@
       <c r="E123">
         <v>16</v>
       </c>
-      <c r="F123" s="13" t="s">
-        <v>36</v>
+      <c r="F123" t="s">
+        <v>38</v>
       </c>
       <c r="G123" s="2">
         <v>0.34375</v>
       </c>
       <c r="H123" s="2">
-        <v>0.5</v>
+        <v>0.53125</v>
       </c>
       <c r="K123" s="1"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C124" s="13" t="s">
         <v>68</v>
@@ -4087,14 +4088,14 @@
       <c r="E124">
         <v>16</v>
       </c>
-      <c r="F124" s="13" t="s">
-        <v>40</v>
+      <c r="F124" t="s">
+        <v>38</v>
       </c>
       <c r="G124" s="2">
-        <v>0.375</v>
+        <v>0.53125</v>
       </c>
       <c r="H124" s="2">
-        <v>0.4375</v>
+        <v>0.5625</v>
       </c>
       <c r="K124" s="1"/>
     </row>
@@ -4114,14 +4115,14 @@
       <c r="E125">
         <v>16</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G125" s="2">
-        <v>0.34375</v>
+        <v>0.5625</v>
       </c>
       <c r="H125" s="2">
-        <v>0.53125</v>
+        <v>0.6875</v>
       </c>
       <c r="K125" s="1"/>
     </row>
@@ -4141,68 +4142,68 @@
       <c r="E126">
         <v>16</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G126" s="2">
-        <v>0.53125</v>
+        <v>0.6875</v>
       </c>
       <c r="H126" s="2">
-        <v>0.5625</v>
+        <v>0.78125</v>
       </c>
       <c r="K126" s="1"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>15</v>
+    <row r="127" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="C127" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E127">
         <v>16</v>
       </c>
-      <c r="F127" s="9" t="s">
-        <v>38</v>
+      <c r="F127" t="s">
+        <v>34</v>
       </c>
       <c r="G127" s="2">
-        <v>0.5625</v>
+        <v>0.34375</v>
       </c>
       <c r="H127" s="2">
-        <v>0.6875</v>
+        <v>0.5</v>
       </c>
       <c r="K127" s="1"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>15</v>
+    <row r="128" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="C128" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E128">
         <v>16</v>
       </c>
-      <c r="F128" s="9" t="s">
-        <v>38</v>
+      <c r="F128" t="s">
+        <v>34</v>
       </c>
       <c r="G128" s="2">
-        <v>0.6875</v>
+        <v>0.5</v>
       </c>
       <c r="H128" s="2">
-        <v>0.78125</v>
+        <v>0.65625</v>
       </c>
       <c r="K128" s="1"/>
     </row>
@@ -4214,7 +4215,7 @@
         <v>81</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D129">
         <v>6</v>
@@ -4226,10 +4227,10 @@
         <v>34</v>
       </c>
       <c r="G129" s="2">
-        <v>0.34375</v>
+        <v>0.65625</v>
       </c>
       <c r="H129" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K129" s="1"/>
     </row>
@@ -4241,7 +4242,7 @@
         <v>81</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D130">
         <v>6</v>
@@ -4250,13 +4251,13 @@
         <v>16</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G130" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="H130" s="2">
         <v>0.5</v>
-      </c>
-      <c r="H130" s="2">
-        <v>0.65625</v>
       </c>
       <c r="K130" s="1"/>
     </row>
@@ -4268,7 +4269,7 @@
         <v>81</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D131">
         <v>6</v>
@@ -4277,13 +4278,13 @@
         <v>16</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G131" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H131" s="2">
         <v>0.65625</v>
-      </c>
-      <c r="H131" s="2">
-        <v>0.75</v>
       </c>
       <c r="K131" s="1"/>
     </row>
@@ -4295,7 +4296,7 @@
         <v>81</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D132">
         <v>6</v>
@@ -4304,13 +4305,13 @@
         <v>16</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G132" s="2">
-        <v>0.34375</v>
+        <v>0.5</v>
       </c>
       <c r="H132" s="2">
-        <v>0.5</v>
+        <v>0.53125</v>
       </c>
       <c r="K132" s="1"/>
     </row>
@@ -4322,7 +4323,7 @@
         <v>81</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D133">
         <v>6</v>
@@ -4331,13 +4332,13 @@
         <v>16</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G133" s="2">
-        <v>0.5</v>
+        <v>0.71875</v>
       </c>
       <c r="H133" s="2">
-        <v>0.65625</v>
+        <v>0.75</v>
       </c>
       <c r="K133" s="1"/>
     </row>
@@ -4349,7 +4350,7 @@
         <v>81</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D134">
         <v>6</v>
@@ -4358,68 +4359,24 @@
         <v>16</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G134" s="2">
-        <v>0.5</v>
+        <v>0.71875</v>
       </c>
       <c r="H134" s="2">
-        <v>0.53125</v>
+        <v>0.75</v>
       </c>
       <c r="K134" s="1"/>
     </row>
-    <row r="135" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C135" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D135">
-        <v>6</v>
-      </c>
-      <c r="E135">
-        <v>16</v>
-      </c>
-      <c r="F135" t="s">
-        <v>35</v>
-      </c>
-      <c r="G135" s="2">
-        <v>0.71875</v>
-      </c>
-      <c r="H135" s="2">
-        <v>0.75</v>
-      </c>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
       <c r="K135" s="1"/>
     </row>
-    <row r="136" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C136" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D136">
-        <v>6</v>
-      </c>
-      <c r="E136">
-        <v>16</v>
-      </c>
-      <c r="F136" t="s">
-        <v>36</v>
-      </c>
-      <c r="G136" s="2">
-        <v>0.71875</v>
-      </c>
-      <c r="H136" s="2">
-        <v>0.75</v>
-      </c>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
       <c r="K136" s="1"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -4728,14 +4685,12 @@
       <c r="K197" s="1"/>
     </row>
     <row r="198" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B198" s="4"/>
-      <c r="C198" s="4"/>
-      <c r="K198" s="1"/>
+      <c r="B198" s="6"/>
+      <c r="C198" s="6"/>
     </row>
     <row r="199" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B199" s="4"/>
-      <c r="C199" s="4"/>
-      <c r="K199" s="1"/>
+      <c r="B199" s="6"/>
+      <c r="C199" s="6"/>
     </row>
     <row r="200" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B200" s="6"/>
@@ -4750,21 +4705,21 @@
       <c r="C202" s="6"/>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B203" s="6"/>
-      <c r="C203" s="6"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="4"/>
+      <c r="K203" s="1"/>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B204" s="6"/>
-      <c r="C204" s="6"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="4"/>
     </row>
     <row r="205" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B205" s="4"/>
-      <c r="C205" s="4"/>
-      <c r="K205" s="1"/>
+      <c r="B205" s="6"/>
+      <c r="C205" s="6"/>
     </row>
     <row r="206" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B206" s="4"/>
-      <c r="C206" s="4"/>
+      <c r="B206" s="6"/>
+      <c r="C206" s="6"/>
     </row>
     <row r="207" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B207" s="6"/>
@@ -4798,11 +4753,13 @@
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="7"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A216" s="7"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
     </row>
@@ -4811,148 +4768,136 @@
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
     </row>
-    <row r="218" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="7"/>
-      <c r="B218" s="6"/>
-      <c r="C218" s="6"/>
-    </row>
-    <row r="219" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A219" s="7"/>
-      <c r="B219" s="6"/>
-      <c r="C219" s="6"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H128" xr:uid="{2E2442F8-A25A-4C8B-994C-1CDF0A0D4BA8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H128">
-      <sortCondition ref="A1:A128"/>
+  <autoFilter ref="A1:H126" xr:uid="{2E2442F8-A25A-4C8B-994C-1CDF0A0D4BA8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H126">
+      <sortCondition ref="A1:A126"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="B66" r:id="rId1" xr:uid="{413B3272-D99E-454A-8352-B9A52593D916}"/>
-    <hyperlink ref="B24" r:id="rId2" xr:uid="{0EC3263F-E445-4616-A541-4F9FDA788FCC}"/>
+    <hyperlink ref="B64" r:id="rId1" xr:uid="{413B3272-D99E-454A-8352-B9A52593D916}"/>
+    <hyperlink ref="B23" r:id="rId2" xr:uid="{0EC3263F-E445-4616-A541-4F9FDA788FCC}"/>
     <hyperlink ref="B2" r:id="rId3" xr:uid="{7D0B8D4C-6899-4B56-8EA1-1CEB3A5EF4D0}"/>
-    <hyperlink ref="B61" r:id="rId4" xr:uid="{35F55E37-857F-4B76-85E5-02C8997874CA}"/>
-    <hyperlink ref="B98" r:id="rId5" xr:uid="{3F2D6ED2-940F-458B-88E1-5A1B6B215BC1}"/>
-    <hyperlink ref="B35" r:id="rId6" xr:uid="{B2DE5D1F-1166-4863-8D0B-334FE5A4D725}"/>
-    <hyperlink ref="B46" r:id="rId7" xr:uid="{6938CEBA-6445-47AC-AC90-E2C93BC79E53}"/>
-    <hyperlink ref="B125" r:id="rId8" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=523" xr:uid="{29B5E415-9D0E-418B-AF87-04D1BAE27726}"/>
-    <hyperlink ref="B126" r:id="rId9" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=523" xr:uid="{8ABCEFC7-D08E-44AD-9A03-80559FB57AA7}"/>
-    <hyperlink ref="B127" r:id="rId10" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=523" xr:uid="{894FCD3E-6B48-4147-81D2-962ADA3A5BF5}"/>
-    <hyperlink ref="B128" r:id="rId11" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=523" xr:uid="{458398A0-EE8F-498D-99F3-EBF3E075342F}"/>
-    <hyperlink ref="B3" r:id="rId12" xr:uid="{EEE81DFF-ED2F-4AF9-BD1D-0851E248D1CA}"/>
-    <hyperlink ref="B4" r:id="rId13" xr:uid="{20F58D97-6C49-49DA-AC0E-A001593C067B}"/>
-    <hyperlink ref="B5" r:id="rId14" xr:uid="{B7D3E1F3-567D-4665-93B8-35BC4E8E981C}"/>
-    <hyperlink ref="B6" r:id="rId15" xr:uid="{884903EB-35AF-4054-8601-D00C5EF64A7A}"/>
-    <hyperlink ref="B7" r:id="rId16" xr:uid="{0565313D-8987-46F0-953E-ED09D6689F37}"/>
-    <hyperlink ref="B8" r:id="rId17" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=542" xr:uid="{8582CED3-4AD0-45BA-BC9D-B42AA6341519}"/>
-    <hyperlink ref="B9" r:id="rId18" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=542" xr:uid="{9DF4E807-CCF9-460C-A4FD-6A07AD9D6EDB}"/>
-    <hyperlink ref="B10" r:id="rId19" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=542" xr:uid="{563F3D2B-B7FA-4919-8791-3D0B60B3EC41}"/>
-    <hyperlink ref="B11" r:id="rId20" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=542" xr:uid="{2C40E45A-9C67-4524-A1C4-A47179AF4D24}"/>
-    <hyperlink ref="B12" r:id="rId21" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=542" xr:uid="{E5ABF007-2A3E-4CCC-81F4-839C39A361E3}"/>
-    <hyperlink ref="B13" r:id="rId22" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{7EE12212-32E6-4785-B8C7-45523DCFFD9F}"/>
-    <hyperlink ref="B14" r:id="rId23" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{18D03AA2-3249-4AEC-8610-0FC91C44B203}"/>
-    <hyperlink ref="B15" r:id="rId24" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{6AE59774-15C2-416F-BE28-97A4693D3B01}"/>
-    <hyperlink ref="B16" r:id="rId25" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{C8023F26-61FA-4030-B880-FFBD5F24EB8E}"/>
-    <hyperlink ref="B17" r:id="rId26" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{996EF2CD-771D-421D-83DD-EC0567C5603C}"/>
-    <hyperlink ref="B25" r:id="rId27" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=477" xr:uid="{4DA22B3F-A300-46C2-AEA3-9498610E1F8A}"/>
-    <hyperlink ref="B26" r:id="rId28" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=477" xr:uid="{9C232393-6CA3-451A-B064-F3F99B42076D}"/>
-    <hyperlink ref="B27" r:id="rId29" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=477" xr:uid="{5F87FFBC-B774-48D6-A7FF-067C22E2F681}"/>
-    <hyperlink ref="B28" r:id="rId30" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{8F4FA2A4-7B57-4D1E-8E6D-3828D6B0A545}"/>
-    <hyperlink ref="B29" r:id="rId31" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{A6AF2A75-D742-437E-BA01-41651E3D0F13}"/>
-    <hyperlink ref="B30" r:id="rId32" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{E067F5C8-64F5-4E7A-912D-D9536F6A165A}"/>
-    <hyperlink ref="B31" r:id="rId33" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{2D30943A-3364-4FD7-8128-468B112790EA}"/>
-    <hyperlink ref="B32" r:id="rId34" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{21568556-F323-4B73-83CF-5B00B04FDC93}"/>
-    <hyperlink ref="B33" r:id="rId35" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{A9FBC03A-BE86-4F2E-B3E8-FEFF96F5798A}"/>
-    <hyperlink ref="B34" r:id="rId36" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{30872622-3ECE-4241-AEDD-6D578CF04468}"/>
-    <hyperlink ref="B42" r:id="rId37" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{CDE3AD7D-FA76-4090-AB7B-7B4A2FC49972}"/>
-    <hyperlink ref="B43" r:id="rId38" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{FECC6EC3-9753-48B7-BFA1-4DD0911A997C}"/>
-    <hyperlink ref="B44" r:id="rId39" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{17B8B4E8-49F4-4568-9DD7-410D524CDB12}"/>
-    <hyperlink ref="B45" r:id="rId40" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{4E99AB37-96B5-4B9C-87A7-56D271A8E83A}"/>
-    <hyperlink ref="B48" r:id="rId41" xr:uid="{F242BF75-D16B-4A6F-ACB4-700B6B9F6158}"/>
-    <hyperlink ref="B49" r:id="rId42" xr:uid="{74DB9793-137B-42A0-BD5C-9C231C9F5E57}"/>
-    <hyperlink ref="B51" r:id="rId43" xr:uid="{501C1F86-E9B9-40D9-A6EB-A67AC1F830F8}"/>
-    <hyperlink ref="B52" r:id="rId44" xr:uid="{AC2A49CE-6DCF-43B7-A1E3-98EA5E214151}"/>
-    <hyperlink ref="B47" r:id="rId45" xr:uid="{E32B22C1-A70F-460E-9027-2CA66CBC18C7}"/>
-    <hyperlink ref="B50" r:id="rId46" xr:uid="{936A99D6-E403-44DD-BBB8-8353EF51D49C}"/>
-    <hyperlink ref="B53" r:id="rId47" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=533" xr:uid="{B572CA2A-0998-48CF-A1A3-DECBA268182C}"/>
-    <hyperlink ref="B54" r:id="rId48" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=533" xr:uid="{61298E67-31CB-4D38-837A-88DD28371CFF}"/>
-    <hyperlink ref="B55" r:id="rId49" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=533" xr:uid="{3EF788A3-2F17-4085-89BB-BA6F0901F610}"/>
-    <hyperlink ref="B56" r:id="rId50" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=533" xr:uid="{E14E7DE6-477A-4287-8302-8FF909892307}"/>
-    <hyperlink ref="B57" r:id="rId51" xr:uid="{15A5F4EC-192B-4D11-A734-AD76B23C914D}"/>
-    <hyperlink ref="B58" r:id="rId52" xr:uid="{4F5AA90C-70F8-404F-8C9D-76916C63E1CB}"/>
-    <hyperlink ref="B59" r:id="rId53" xr:uid="{62AD5925-066B-4E4A-9AC0-AD22FDD57A3E}"/>
-    <hyperlink ref="B60" r:id="rId54" xr:uid="{52E6840A-45AE-4676-96FA-B95D4BA89A64}"/>
-    <hyperlink ref="B83" r:id="rId55" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{FE2A5213-8D71-4B03-8A7F-92E7B8E74999}"/>
-    <hyperlink ref="B84" r:id="rId56" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{31932214-6FFD-4A94-86D4-DDB137E0CD36}"/>
-    <hyperlink ref="B85" r:id="rId57" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{389FBC41-196E-453F-9785-3B9C1DE08AC2}"/>
-    <hyperlink ref="B86" r:id="rId58" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{D199F469-9485-416C-B25C-B5DC840D8D88}"/>
-    <hyperlink ref="B87" r:id="rId59" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{C107FD22-81BA-444C-A1EC-CB754842EE0B}"/>
-    <hyperlink ref="B88" r:id="rId60" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{9759E087-C29E-4321-8E2E-672738DE7A57}"/>
-    <hyperlink ref="B89" r:id="rId61" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{9CAD9C31-2D7B-4E4D-AA7F-223D6810AD56}"/>
-    <hyperlink ref="B90" r:id="rId62" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{274EA78A-01A7-485D-AEEB-BAEDFD90EAB6}"/>
-    <hyperlink ref="B91" r:id="rId63" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{9C9AE614-C29F-4E51-A014-FF19643F3C7B}"/>
-    <hyperlink ref="B92" r:id="rId64" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{58887130-F7BB-4372-8532-E87A4E69C12A}"/>
-    <hyperlink ref="B93" r:id="rId65" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{DA24BB3B-9CE3-41C3-817C-74529CCD066D}"/>
-    <hyperlink ref="B94" r:id="rId66" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{4B11E8D3-4A05-4E7A-9799-712424A0090F}"/>
-    <hyperlink ref="B95" r:id="rId67" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{6E69A377-5F5A-4815-B9D7-DB2ED37951B0}"/>
-    <hyperlink ref="B96" r:id="rId68" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{5047B395-C0ED-4668-9870-87FED1D37E62}"/>
-    <hyperlink ref="B97" r:id="rId69" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{F4323351-EFB7-4B5A-BDEF-DD3098F726E0}"/>
-    <hyperlink ref="B100" r:id="rId70" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{CCD5AC48-0CEB-49B7-87E1-A6ABE8852D2D}"/>
-    <hyperlink ref="B103" r:id="rId71" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{AF4A062B-AA9C-479C-9DBC-5E50210CD30E}"/>
-    <hyperlink ref="B104" r:id="rId72" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{7DDCB644-950D-489C-AD7A-D90320A5FAAB}"/>
-    <hyperlink ref="B105" r:id="rId73" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{42FC56BA-D2D6-4CC4-96C0-B8F0C6B9CA81}"/>
-    <hyperlink ref="B101" r:id="rId74" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{689D09C4-65BF-45B7-AB9A-69CDB6606878}"/>
-    <hyperlink ref="B102" r:id="rId75" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{51278D8F-1343-496B-8650-DBCBAE42D38A}"/>
-    <hyperlink ref="B106" r:id="rId76" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{09E24297-A52B-44DD-9CA4-2A2AAFE39956}"/>
-    <hyperlink ref="B107" r:id="rId77" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{5561EFFA-0D5A-415F-A8A5-2711AA14FB73}"/>
-    <hyperlink ref="B108" r:id="rId78" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{7B710331-C430-49F2-BFC8-0C93F4D7E1F0}"/>
-    <hyperlink ref="B109" r:id="rId79" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{08E3AD13-0DBA-4D8E-A805-A4450D9062EB}"/>
-    <hyperlink ref="B110" r:id="rId80" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{5C9197CF-AFB0-49AC-A911-3036D2512433}"/>
-    <hyperlink ref="B111" r:id="rId81" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{BFE4F1B8-9FEB-498F-A336-348CB7BDECCC}"/>
-    <hyperlink ref="B112" r:id="rId82" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{F555A1BE-5A90-4FE6-A9B3-5EC707E5EBA7}"/>
-    <hyperlink ref="B113" r:id="rId83" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{FD519039-0AD9-4A39-82B5-6F61019D28F1}"/>
-    <hyperlink ref="B114" r:id="rId84" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{FC2E898F-D4AB-44F2-9768-2FE3BD21F3AC}"/>
-    <hyperlink ref="B115" r:id="rId85" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{35D39632-046A-4A64-879D-2DF364543D3C}"/>
-    <hyperlink ref="B116" r:id="rId86" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{B5B39F47-BE2C-47DC-85F7-0AE0D9326AE5}"/>
-    <hyperlink ref="B117" r:id="rId87" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{AFD9079D-1053-4967-B8E4-A4115C49794E}"/>
-    <hyperlink ref="B118" r:id="rId88" xr:uid="{98D8C048-73E2-4B74-9C91-8027BAA51572}"/>
-    <hyperlink ref="B119" r:id="rId89" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{14B44F57-D0CA-4E22-9F6B-61C58871BBFE}"/>
-    <hyperlink ref="B120" r:id="rId90" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{D5546628-C31D-44E6-B3DB-E58AEBEF5811}"/>
-    <hyperlink ref="B121" r:id="rId91" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{B5995808-DC3B-4493-A6D6-DEB19BF9FEED}"/>
-    <hyperlink ref="B122" r:id="rId92" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{B2AE95F6-543C-4432-AA3D-97E930AAA087}"/>
-    <hyperlink ref="B123" r:id="rId93" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{D4818254-CBAC-44FC-892F-27D8D21B53E4}"/>
-    <hyperlink ref="B124" r:id="rId94" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{57804D83-E8D5-4E71-8F1C-B67D736BDD17}"/>
-    <hyperlink ref="B36" r:id="rId95" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=535" xr:uid="{D5080FC5-7A43-4D05-8423-6DCEE8BB0ABA}"/>
-    <hyperlink ref="B37" r:id="rId96" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=535" xr:uid="{E4BE8183-6706-4015-93FD-FF7D6E0EA272}"/>
-    <hyperlink ref="B38" r:id="rId97" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=535" xr:uid="{6B854B8A-D2D7-4933-B84E-0C8EAE4CE3D3}"/>
-    <hyperlink ref="B39" r:id="rId98" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=535" xr:uid="{37880FA0-65B6-474E-8704-7EFAFEF6DFCC}"/>
-    <hyperlink ref="B40" r:id="rId99" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=535" xr:uid="{2BB25E74-97D0-403A-9F48-13CBBB6AAB06}"/>
-    <hyperlink ref="B41" r:id="rId100" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=535" xr:uid="{DC00C712-ABAF-4B82-9908-997BE242B26E}"/>
-    <hyperlink ref="B99" r:id="rId101" xr:uid="{006AA5C5-8F89-43B6-B527-7CA897C969E2}"/>
-    <hyperlink ref="B79" r:id="rId102" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=128" xr:uid="{2B512CAF-2BD2-49BE-AF79-F67B1B311102}"/>
-    <hyperlink ref="B80" r:id="rId103" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=128" xr:uid="{11A719D3-EC5D-49D1-8601-11DCF7314E51}"/>
-    <hyperlink ref="B81" r:id="rId104" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=128" xr:uid="{519D7A80-D249-4498-A34D-54BADE2AA7AE}"/>
-    <hyperlink ref="B82" r:id="rId105" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=128" xr:uid="{7E568234-12E2-4650-BE6B-B9B23064E77F}"/>
-    <hyperlink ref="B18" r:id="rId106" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{46BA6FA2-04DF-4555-9D17-83797EEDBA6E}"/>
-    <hyperlink ref="B19" r:id="rId107" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{2C120EC6-FBCB-47A9-9928-9C392B6D573F}"/>
-    <hyperlink ref="B20" r:id="rId108" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{E8271A08-3E61-41AB-8B1F-E2EC3278662E}"/>
-    <hyperlink ref="B21" r:id="rId109" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{663F9B2C-0C08-40FE-BA06-79459046F38A}"/>
-    <hyperlink ref="B22" r:id="rId110" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{CB0E5C47-E562-4B9A-95FF-5205836DD6FE}"/>
-    <hyperlink ref="B23" r:id="rId111" xr:uid="{B393145D-8CD0-482C-8208-0F63D87C4921}"/>
-    <hyperlink ref="B62" r:id="rId112" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=262" xr:uid="{F5CC118E-0F46-4E8E-B95A-C3233EFCF804}"/>
-    <hyperlink ref="B63" r:id="rId113" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=262" xr:uid="{A4FC6ED1-D1F6-46E6-AF8D-F0039BCF0348}"/>
-    <hyperlink ref="B64" r:id="rId114" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=262" xr:uid="{700FBCCD-79AF-45F7-80E4-5D8613A6954C}"/>
-    <hyperlink ref="B65" r:id="rId115" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=262" xr:uid="{6F268D3E-0A12-4E12-B010-CA02F1CC36A7}"/>
-    <hyperlink ref="B130" r:id="rId116" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{A6AF451E-BE1F-497C-A42A-CA3770A73899}"/>
-    <hyperlink ref="B131" r:id="rId117" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{8B49ED20-EBC1-4905-B4E1-2ABAEE30064E}"/>
-    <hyperlink ref="B132" r:id="rId118" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{34EF590D-C3EF-4381-8368-BCDD50CAFDAB}"/>
-    <hyperlink ref="B133" r:id="rId119" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{3A021F5A-6992-4D9A-8214-CA1133B7891C}"/>
-    <hyperlink ref="B134" r:id="rId120" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{A876C220-6BEE-445C-8788-042C41DF3696}"/>
-    <hyperlink ref="B135" r:id="rId121" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{7945E20C-6AD3-42E5-8AA1-4CED92B900FE}"/>
-    <hyperlink ref="B136" r:id="rId122" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{EC9C1B95-7DC8-421A-97A3-DD07C01A2E73}"/>
+    <hyperlink ref="B96" r:id="rId4" xr:uid="{3F2D6ED2-940F-458B-88E1-5A1B6B215BC1}"/>
+    <hyperlink ref="B34" r:id="rId5" xr:uid="{B2DE5D1F-1166-4863-8D0B-334FE5A4D725}"/>
+    <hyperlink ref="B45" r:id="rId6" xr:uid="{6938CEBA-6445-47AC-AC90-E2C93BC79E53}"/>
+    <hyperlink ref="B123" r:id="rId7" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=523" xr:uid="{29B5E415-9D0E-418B-AF87-04D1BAE27726}"/>
+    <hyperlink ref="B124" r:id="rId8" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=523" xr:uid="{8ABCEFC7-D08E-44AD-9A03-80559FB57AA7}"/>
+    <hyperlink ref="B125" r:id="rId9" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=523" xr:uid="{894FCD3E-6B48-4147-81D2-962ADA3A5BF5}"/>
+    <hyperlink ref="B126" r:id="rId10" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=523" xr:uid="{458398A0-EE8F-498D-99F3-EBF3E075342F}"/>
+    <hyperlink ref="B3" r:id="rId11" xr:uid="{EEE81DFF-ED2F-4AF9-BD1D-0851E248D1CA}"/>
+    <hyperlink ref="B4" r:id="rId12" xr:uid="{20F58D97-6C49-49DA-AC0E-A001593C067B}"/>
+    <hyperlink ref="B5" r:id="rId13" xr:uid="{B7D3E1F3-567D-4665-93B8-35BC4E8E981C}"/>
+    <hyperlink ref="B6" r:id="rId14" xr:uid="{884903EB-35AF-4054-8601-D00C5EF64A7A}"/>
+    <hyperlink ref="B7" r:id="rId15" xr:uid="{0565313D-8987-46F0-953E-ED09D6689F37}"/>
+    <hyperlink ref="B8" r:id="rId16" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=542" xr:uid="{8582CED3-4AD0-45BA-BC9D-B42AA6341519}"/>
+    <hyperlink ref="B9" r:id="rId17" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=542" xr:uid="{9DF4E807-CCF9-460C-A4FD-6A07AD9D6EDB}"/>
+    <hyperlink ref="B10" r:id="rId18" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=542" xr:uid="{563F3D2B-B7FA-4919-8791-3D0B60B3EC41}"/>
+    <hyperlink ref="B11" r:id="rId19" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=542" xr:uid="{2C40E45A-9C67-4524-A1C4-A47179AF4D24}"/>
+    <hyperlink ref="B12" r:id="rId20" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=542" xr:uid="{E5ABF007-2A3E-4CCC-81F4-839C39A361E3}"/>
+    <hyperlink ref="B13" r:id="rId21" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{7EE12212-32E6-4785-B8C7-45523DCFFD9F}"/>
+    <hyperlink ref="B14" r:id="rId22" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{18D03AA2-3249-4AEC-8610-0FC91C44B203}"/>
+    <hyperlink ref="B15" r:id="rId23" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{6AE59774-15C2-416F-BE28-97A4693D3B01}"/>
+    <hyperlink ref="B16" r:id="rId24" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{C8023F26-61FA-4030-B880-FFBD5F24EB8E}"/>
+    <hyperlink ref="B17" r:id="rId25" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{996EF2CD-771D-421D-83DD-EC0567C5603C}"/>
+    <hyperlink ref="B24" r:id="rId26" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=477" xr:uid="{4DA22B3F-A300-46C2-AEA3-9498610E1F8A}"/>
+    <hyperlink ref="B25" r:id="rId27" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=477" xr:uid="{9C232393-6CA3-451A-B064-F3F99B42076D}"/>
+    <hyperlink ref="B26" r:id="rId28" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=477" xr:uid="{5F87FFBC-B774-48D6-A7FF-067C22E2F681}"/>
+    <hyperlink ref="B27" r:id="rId29" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{8F4FA2A4-7B57-4D1E-8E6D-3828D6B0A545}"/>
+    <hyperlink ref="B28" r:id="rId30" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{A6AF2A75-D742-437E-BA01-41651E3D0F13}"/>
+    <hyperlink ref="B29" r:id="rId31" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{E067F5C8-64F5-4E7A-912D-D9536F6A165A}"/>
+    <hyperlink ref="B30" r:id="rId32" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{2D30943A-3364-4FD7-8128-468B112790EA}"/>
+    <hyperlink ref="B31" r:id="rId33" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{21568556-F323-4B73-83CF-5B00B04FDC93}"/>
+    <hyperlink ref="B32" r:id="rId34" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{A9FBC03A-BE86-4F2E-B3E8-FEFF96F5798A}"/>
+    <hyperlink ref="B33" r:id="rId35" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{30872622-3ECE-4241-AEDD-6D578CF04468}"/>
+    <hyperlink ref="B41" r:id="rId36" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{CDE3AD7D-FA76-4090-AB7B-7B4A2FC49972}"/>
+    <hyperlink ref="B42" r:id="rId37" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{FECC6EC3-9753-48B7-BFA1-4DD0911A997C}"/>
+    <hyperlink ref="B43" r:id="rId38" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{17B8B4E8-49F4-4568-9DD7-410D524CDB12}"/>
+    <hyperlink ref="B44" r:id="rId39" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{4E99AB37-96B5-4B9C-87A7-56D271A8E83A}"/>
+    <hyperlink ref="B47" r:id="rId40" xr:uid="{F242BF75-D16B-4A6F-ACB4-700B6B9F6158}"/>
+    <hyperlink ref="B48" r:id="rId41" xr:uid="{74DB9793-137B-42A0-BD5C-9C231C9F5E57}"/>
+    <hyperlink ref="B50" r:id="rId42" xr:uid="{501C1F86-E9B9-40D9-A6EB-A67AC1F830F8}"/>
+    <hyperlink ref="B51" r:id="rId43" xr:uid="{AC2A49CE-6DCF-43B7-A1E3-98EA5E214151}"/>
+    <hyperlink ref="B46" r:id="rId44" xr:uid="{E32B22C1-A70F-460E-9027-2CA66CBC18C7}"/>
+    <hyperlink ref="B49" r:id="rId45" xr:uid="{936A99D6-E403-44DD-BBB8-8353EF51D49C}"/>
+    <hyperlink ref="B52" r:id="rId46" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=533" xr:uid="{B572CA2A-0998-48CF-A1A3-DECBA268182C}"/>
+    <hyperlink ref="B53" r:id="rId47" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=533" xr:uid="{61298E67-31CB-4D38-837A-88DD28371CFF}"/>
+    <hyperlink ref="B54" r:id="rId48" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=533" xr:uid="{3EF788A3-2F17-4085-89BB-BA6F0901F610}"/>
+    <hyperlink ref="B55" r:id="rId49" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=533" xr:uid="{E14E7DE6-477A-4287-8302-8FF909892307}"/>
+    <hyperlink ref="B56" r:id="rId50" xr:uid="{15A5F4EC-192B-4D11-A734-AD76B23C914D}"/>
+    <hyperlink ref="B57" r:id="rId51" xr:uid="{4F5AA90C-70F8-404F-8C9D-76916C63E1CB}"/>
+    <hyperlink ref="B58" r:id="rId52" xr:uid="{62AD5925-066B-4E4A-9AC0-AD22FDD57A3E}"/>
+    <hyperlink ref="B59" r:id="rId53" xr:uid="{52E6840A-45AE-4676-96FA-B95D4BA89A64}"/>
+    <hyperlink ref="B81" r:id="rId54" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{FE2A5213-8D71-4B03-8A7F-92E7B8E74999}"/>
+    <hyperlink ref="B82" r:id="rId55" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{31932214-6FFD-4A94-86D4-DDB137E0CD36}"/>
+    <hyperlink ref="B83" r:id="rId56" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{389FBC41-196E-453F-9785-3B9C1DE08AC2}"/>
+    <hyperlink ref="B84" r:id="rId57" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{D199F469-9485-416C-B25C-B5DC840D8D88}"/>
+    <hyperlink ref="B85" r:id="rId58" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{C107FD22-81BA-444C-A1EC-CB754842EE0B}"/>
+    <hyperlink ref="B86" r:id="rId59" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{9759E087-C29E-4321-8E2E-672738DE7A57}"/>
+    <hyperlink ref="B87" r:id="rId60" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{9CAD9C31-2D7B-4E4D-AA7F-223D6810AD56}"/>
+    <hyperlink ref="B88" r:id="rId61" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{274EA78A-01A7-485D-AEEB-BAEDFD90EAB6}"/>
+    <hyperlink ref="B89" r:id="rId62" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{9C9AE614-C29F-4E51-A014-FF19643F3C7B}"/>
+    <hyperlink ref="B90" r:id="rId63" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{58887130-F7BB-4372-8532-E87A4E69C12A}"/>
+    <hyperlink ref="B91" r:id="rId64" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{DA24BB3B-9CE3-41C3-817C-74529CCD066D}"/>
+    <hyperlink ref="B92" r:id="rId65" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{4B11E8D3-4A05-4E7A-9799-712424A0090F}"/>
+    <hyperlink ref="B93" r:id="rId66" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{6E69A377-5F5A-4815-B9D7-DB2ED37951B0}"/>
+    <hyperlink ref="B94" r:id="rId67" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{5047B395-C0ED-4668-9870-87FED1D37E62}"/>
+    <hyperlink ref="B95" r:id="rId68" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{F4323351-EFB7-4B5A-BDEF-DD3098F726E0}"/>
+    <hyperlink ref="B98" r:id="rId69" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{CCD5AC48-0CEB-49B7-87E1-A6ABE8852D2D}"/>
+    <hyperlink ref="B101" r:id="rId70" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{AF4A062B-AA9C-479C-9DBC-5E50210CD30E}"/>
+    <hyperlink ref="B102" r:id="rId71" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{7DDCB644-950D-489C-AD7A-D90320A5FAAB}"/>
+    <hyperlink ref="B103" r:id="rId72" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{42FC56BA-D2D6-4CC4-96C0-B8F0C6B9CA81}"/>
+    <hyperlink ref="B99" r:id="rId73" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{689D09C4-65BF-45B7-AB9A-69CDB6606878}"/>
+    <hyperlink ref="B100" r:id="rId74" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{51278D8F-1343-496B-8650-DBCBAE42D38A}"/>
+    <hyperlink ref="B104" r:id="rId75" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{09E24297-A52B-44DD-9CA4-2A2AAFE39956}"/>
+    <hyperlink ref="B105" r:id="rId76" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{5561EFFA-0D5A-415F-A8A5-2711AA14FB73}"/>
+    <hyperlink ref="B106" r:id="rId77" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=474" xr:uid="{7B710331-C430-49F2-BFC8-0C93F4D7E1F0}"/>
+    <hyperlink ref="B107" r:id="rId78" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{08E3AD13-0DBA-4D8E-A805-A4450D9062EB}"/>
+    <hyperlink ref="B108" r:id="rId79" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{5C9197CF-AFB0-49AC-A911-3036D2512433}"/>
+    <hyperlink ref="B109" r:id="rId80" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{BFE4F1B8-9FEB-498F-A336-348CB7BDECCC}"/>
+    <hyperlink ref="B110" r:id="rId81" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{F555A1BE-5A90-4FE6-A9B3-5EC707E5EBA7}"/>
+    <hyperlink ref="B111" r:id="rId82" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{FD519039-0AD9-4A39-82B5-6F61019D28F1}"/>
+    <hyperlink ref="B112" r:id="rId83" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{FC2E898F-D4AB-44F2-9768-2FE3BD21F3AC}"/>
+    <hyperlink ref="B113" r:id="rId84" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{35D39632-046A-4A64-879D-2DF364543D3C}"/>
+    <hyperlink ref="B114" r:id="rId85" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{B5B39F47-BE2C-47DC-85F7-0AE0D9326AE5}"/>
+    <hyperlink ref="B115" r:id="rId86" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{AFD9079D-1053-4967-B8E4-A4115C49794E}"/>
+    <hyperlink ref="B116" r:id="rId87" xr:uid="{98D8C048-73E2-4B74-9C91-8027BAA51572}"/>
+    <hyperlink ref="B117" r:id="rId88" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{14B44F57-D0CA-4E22-9F6B-61C58871BBFE}"/>
+    <hyperlink ref="B118" r:id="rId89" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{D5546628-C31D-44E6-B3DB-E58AEBEF5811}"/>
+    <hyperlink ref="B119" r:id="rId90" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{B5995808-DC3B-4493-A6D6-DEB19BF9FEED}"/>
+    <hyperlink ref="B120" r:id="rId91" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{B2AE95F6-543C-4432-AA3D-97E930AAA087}"/>
+    <hyperlink ref="B121" r:id="rId92" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{D4818254-CBAC-44FC-892F-27D8D21B53E4}"/>
+    <hyperlink ref="B122" r:id="rId93" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=526" xr:uid="{57804D83-E8D5-4E71-8F1C-B67D736BDD17}"/>
+    <hyperlink ref="B35" r:id="rId94" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=535" xr:uid="{D5080FC5-7A43-4D05-8423-6DCEE8BB0ABA}"/>
+    <hyperlink ref="B36" r:id="rId95" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=535" xr:uid="{E4BE8183-6706-4015-93FD-FF7D6E0EA272}"/>
+    <hyperlink ref="B37" r:id="rId96" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=535" xr:uid="{6B854B8A-D2D7-4933-B84E-0C8EAE4CE3D3}"/>
+    <hyperlink ref="B38" r:id="rId97" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=535" xr:uid="{37880FA0-65B6-474E-8704-7EFAFEF6DFCC}"/>
+    <hyperlink ref="B39" r:id="rId98" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=535" xr:uid="{2BB25E74-97D0-403A-9F48-13CBBB6AAB06}"/>
+    <hyperlink ref="B40" r:id="rId99" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=535" xr:uid="{DC00C712-ABAF-4B82-9908-997BE242B26E}"/>
+    <hyperlink ref="B97" r:id="rId100" xr:uid="{006AA5C5-8F89-43B6-B527-7CA897C969E2}"/>
+    <hyperlink ref="B77" r:id="rId101" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=128" xr:uid="{2B512CAF-2BD2-49BE-AF79-F67B1B311102}"/>
+    <hyperlink ref="B78" r:id="rId102" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=128" xr:uid="{11A719D3-EC5D-49D1-8601-11DCF7314E51}"/>
+    <hyperlink ref="B79" r:id="rId103" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=128" xr:uid="{519D7A80-D249-4498-A34D-54BADE2AA7AE}"/>
+    <hyperlink ref="B80" r:id="rId104" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=128" xr:uid="{7E568234-12E2-4650-BE6B-B9B23064E77F}"/>
+    <hyperlink ref="B18" r:id="rId105" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{46BA6FA2-04DF-4555-9D17-83797EEDBA6E}"/>
+    <hyperlink ref="B19" r:id="rId106" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{2C120EC6-FBCB-47A9-9928-9C392B6D573F}"/>
+    <hyperlink ref="B20" r:id="rId107" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{E8271A08-3E61-41AB-8B1F-E2EC3278662E}"/>
+    <hyperlink ref="B21" r:id="rId108" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=532" xr:uid="{663F9B2C-0C08-40FE-BA06-79459046F38A}"/>
+    <hyperlink ref="B22" r:id="rId109" xr:uid="{B393145D-8CD0-482C-8208-0F63D87C4921}"/>
+    <hyperlink ref="B60" r:id="rId110" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=262" xr:uid="{F5CC118E-0F46-4E8E-B95A-C3233EFCF804}"/>
+    <hyperlink ref="B61" r:id="rId111" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=262" xr:uid="{A4FC6ED1-D1F6-46E6-AF8D-F0039BCF0348}"/>
+    <hyperlink ref="B62" r:id="rId112" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=262" xr:uid="{700FBCCD-79AF-45F7-80E4-5D8613A6954C}"/>
+    <hyperlink ref="B63" r:id="rId113" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=262" xr:uid="{6F268D3E-0A12-4E12-B010-CA02F1CC36A7}"/>
+    <hyperlink ref="B128" r:id="rId114" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{A6AF451E-BE1F-497C-A42A-CA3770A73899}"/>
+    <hyperlink ref="B129" r:id="rId115" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{8B49ED20-EBC1-4905-B4E1-2ABAEE30064E}"/>
+    <hyperlink ref="B130" r:id="rId116" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{34EF590D-C3EF-4381-8368-BCDD50CAFDAB}"/>
+    <hyperlink ref="B131" r:id="rId117" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{3A021F5A-6992-4D9A-8214-CA1133B7891C}"/>
+    <hyperlink ref="B132" r:id="rId118" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{A876C220-6BEE-445C-8788-042C41DF3696}"/>
+    <hyperlink ref="B133" r:id="rId119" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{7945E20C-6AD3-42E5-8AA1-4CED92B900FE}"/>
+    <hyperlink ref="B134" r:id="rId120" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=531" xr:uid="{EC9C1B95-7DC8-421A-97A3-DD07C01A2E73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId123"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId121"/>
 </worksheet>
 </file>
 

--- a/EXCEL_TRABAJADO/2023-1cnl.xlsx
+++ b/EXCEL_TRABAJADO/2023-1cnl.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gians\Desktop\dev\UNDC_AUTOMATIZACION\EXCEL_TRABAJADO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072D2AA6-DA46-47F0-82B3-C8A41FC2501A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B30094C-94BD-4A7F-AA5D-27B5DB733675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{AC3D8E4D-96C0-40C7-9193-949C63F87DF0}"/>
   </bookViews>
@@ -749,8 +749,8 @@
   <dimension ref="A1:K217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,7 +1227,7 @@
       <c r="B18" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D18" s="24">
@@ -1254,7 +1254,7 @@
       <c r="B19" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D19" s="24">
@@ -1281,7 +1281,7 @@
       <c r="B20" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="24">
@@ -1308,8 +1308,8 @@
       <c r="B21" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>44</v>
+      <c r="C21" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="D21" s="24">
         <v>4</v>
@@ -2352,7 +2352,7 @@
         <v>6</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -2364,10 +2364,10 @@
         <v>34</v>
       </c>
       <c r="G60" s="2">
-        <v>0.5</v>
+        <v>0.65625</v>
       </c>
       <c r="H60" s="2">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K60" s="1"/>
     </row>
@@ -2379,7 +2379,7 @@
         <v>6</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -2406,7 +2406,7 @@
         <v>6</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -2421,7 +2421,7 @@
         <v>0.75</v>
       </c>
       <c r="H62" s="2">
-        <v>0.84375</v>
+        <v>0.8125</v>
       </c>
       <c r="K62" s="1"/>
     </row>
@@ -2433,7 +2433,7 @@
         <v>6</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -2442,13 +2442,13 @@
         <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G63" s="2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="H63" s="2">
-        <v>0.84375</v>
+        <v>0.65625</v>
       </c>
       <c r="K63" s="1"/>
     </row>
@@ -3890,7 +3890,7 @@
       <c r="B117" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C117" s="17" t="s">
+      <c r="C117" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D117" s="17">
@@ -3917,7 +3917,7 @@
       <c r="B118" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C118" s="17" t="s">
+      <c r="C118" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D118" s="17">
@@ -3944,7 +3944,7 @@
       <c r="B119" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C119" s="17" t="s">
+      <c r="C119" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D119" s="17">
@@ -3971,7 +3971,7 @@
       <c r="B120" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C120" s="17" t="s">
+      <c r="C120" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D120" s="17">
@@ -3998,7 +3998,7 @@
       <c r="B121" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C121" s="17" t="s">
+      <c r="C121" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D121" s="17">
@@ -4025,7 +4025,7 @@
       <c r="B122" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C122" s="17" t="s">
+      <c r="C122" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D122" s="17">

--- a/EXCEL_TRABAJADO/2023-1cnl.xlsx
+++ b/EXCEL_TRABAJADO/2023-1cnl.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gians\Desktop\dev\UNDC_AUTOMATIZACION\EXCEL_TRABAJADO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B30094C-94BD-4A7F-AA5D-27B5DB733675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD90550C-342E-43B9-93D6-33FC3D77C891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{AC3D8E4D-96C0-40C7-9193-949C63F87DF0}"/>
   </bookViews>
@@ -749,8 +749,8 @@
   <dimension ref="A1:K217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H57" sqref="H57"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,10 +799,10 @@
         <v>68</v>
       </c>
       <c r="D2" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E2" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>35</v>
@@ -826,10 +826,10 @@
         <v>68</v>
       </c>
       <c r="D3" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E3" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>35</v>
@@ -853,10 +853,10 @@
         <v>68</v>
       </c>
       <c r="D4" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E4" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>40</v>
@@ -880,10 +880,10 @@
         <v>68</v>
       </c>
       <c r="D5" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E5" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>40</v>
@@ -907,10 +907,10 @@
         <v>68</v>
       </c>
       <c r="D6" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E6" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>40</v>
@@ -934,10 +934,10 @@
         <v>68</v>
       </c>
       <c r="D7" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E7" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>38</v>
@@ -960,11 +960,11 @@
       <c r="C8" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>16</v>
+      <c r="D8" s="13">
+        <v>17</v>
+      </c>
+      <c r="E8" s="13">
+        <v>18</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
@@ -987,11 +987,11 @@
       <c r="C9" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>16</v>
+      <c r="D9" s="13">
+        <v>17</v>
+      </c>
+      <c r="E9" s="13">
+        <v>18</v>
       </c>
       <c r="F9" t="s">
         <v>39</v>
@@ -1014,11 +1014,11 @@
       <c r="C10" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>16</v>
+      <c r="D10" s="13">
+        <v>17</v>
+      </c>
+      <c r="E10" s="13">
+        <v>18</v>
       </c>
       <c r="F10" t="s">
         <v>35</v>
@@ -1041,11 +1041,11 @@
       <c r="C11" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>16</v>
+      <c r="D11" s="13">
+        <v>17</v>
+      </c>
+      <c r="E11" s="13">
+        <v>18</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
@@ -1068,11 +1068,11 @@
       <c r="C12" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>16</v>
+      <c r="D12" s="13">
+        <v>17</v>
+      </c>
+      <c r="E12" s="13">
+        <v>18</v>
       </c>
       <c r="F12" t="s">
         <v>40</v>
@@ -1096,10 +1096,10 @@
         <v>68</v>
       </c>
       <c r="D13" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E13" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>34</v>
@@ -1123,10 +1123,10 @@
         <v>68</v>
       </c>
       <c r="D14" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E14" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>39</v>
@@ -1150,10 +1150,10 @@
         <v>68</v>
       </c>
       <c r="D15" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E15" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>35</v>
@@ -1177,10 +1177,10 @@
         <v>68</v>
       </c>
       <c r="D16" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E16" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>36</v>
@@ -1204,10 +1204,10 @@
         <v>68</v>
       </c>
       <c r="D17" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E17" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>40</v>
@@ -1230,11 +1230,11 @@
       <c r="C18" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="24">
-        <v>2</v>
-      </c>
-      <c r="E18" s="24">
-        <v>16</v>
+      <c r="D18" s="13">
+        <v>17</v>
+      </c>
+      <c r="E18" s="13">
+        <v>18</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>34</v>
@@ -1257,11 +1257,11 @@
       <c r="C19" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="24">
-        <v>1</v>
-      </c>
-      <c r="E19" s="24">
-        <v>16</v>
+      <c r="D19" s="13">
+        <v>17</v>
+      </c>
+      <c r="E19" s="13">
+        <v>18</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>35</v>
@@ -1284,11 +1284,11 @@
       <c r="C20" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="24">
-        <v>1</v>
-      </c>
-      <c r="E20" s="24">
-        <v>16</v>
+      <c r="D20" s="13">
+        <v>17</v>
+      </c>
+      <c r="E20" s="13">
+        <v>18</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>40</v>
@@ -1311,11 +1311,11 @@
       <c r="C21" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="24">
-        <v>4</v>
-      </c>
-      <c r="E21" s="24">
-        <v>4</v>
+      <c r="D21" s="13">
+        <v>17</v>
+      </c>
+      <c r="E21" s="13">
+        <v>18</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>38</v>
@@ -1338,11 +1338,11 @@
       <c r="C22" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="23">
-        <v>1</v>
-      </c>
-      <c r="E22" s="23">
-        <v>16</v>
+      <c r="D22" s="13">
+        <v>17</v>
+      </c>
+      <c r="E22" s="13">
+        <v>18</v>
       </c>
       <c r="F22" s="23" t="s">
         <v>39</v>
@@ -1365,11 +1365,11 @@
       <c r="C23" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="23">
-        <v>16</v>
+      <c r="D23" s="13">
+        <v>17</v>
+      </c>
+      <c r="E23" s="13">
+        <v>18</v>
       </c>
       <c r="F23" s="23" t="s">
         <v>39</v>
@@ -1393,10 +1393,10 @@
         <v>68</v>
       </c>
       <c r="D24" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E24" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>35</v>
@@ -1420,10 +1420,10 @@
         <v>68</v>
       </c>
       <c r="D25" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E25" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>36</v>
@@ -1447,10 +1447,10 @@
         <v>68</v>
       </c>
       <c r="D26" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E26" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>40</v>
@@ -1473,11 +1473,11 @@
       <c r="C27" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>16</v>
+      <c r="D27" s="13">
+        <v>17</v>
+      </c>
+      <c r="E27" s="13">
+        <v>18</v>
       </c>
       <c r="F27" t="s">
         <v>34</v>
@@ -1500,11 +1500,11 @@
       <c r="C28" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>16</v>
+      <c r="D28" s="13">
+        <v>17</v>
+      </c>
+      <c r="E28" s="13">
+        <v>18</v>
       </c>
       <c r="F28" t="s">
         <v>39</v>
@@ -1527,11 +1527,11 @@
       <c r="C29" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>16</v>
+      <c r="D29" s="13">
+        <v>17</v>
+      </c>
+      <c r="E29" s="13">
+        <v>18</v>
       </c>
       <c r="F29" t="s">
         <v>39</v>
@@ -1554,11 +1554,11 @@
       <c r="C30" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>16</v>
+      <c r="D30" s="13">
+        <v>17</v>
+      </c>
+      <c r="E30" s="13">
+        <v>18</v>
       </c>
       <c r="F30" t="s">
         <v>39</v>
@@ -1581,11 +1581,11 @@
       <c r="C31" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>16</v>
+      <c r="D31" s="13">
+        <v>17</v>
+      </c>
+      <c r="E31" s="13">
+        <v>18</v>
       </c>
       <c r="F31" t="s">
         <v>39</v>
@@ -1608,11 +1608,11 @@
       <c r="C32" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>16</v>
+      <c r="D32" s="13">
+        <v>17</v>
+      </c>
+      <c r="E32" s="13">
+        <v>18</v>
       </c>
       <c r="F32" t="s">
         <v>39</v>
@@ -1635,11 +1635,11 @@
       <c r="C33" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>16</v>
+      <c r="D33" s="13">
+        <v>17</v>
+      </c>
+      <c r="E33" s="13">
+        <v>18</v>
       </c>
       <c r="F33" t="s">
         <v>35</v>
@@ -1662,8 +1662,12 @@
       <c r="C34" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
+      <c r="D34" s="13">
+        <v>17</v>
+      </c>
+      <c r="E34" s="13">
+        <v>18</v>
+      </c>
       <c r="F34" s="17"/>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
@@ -1677,13 +1681,13 @@
         <v>65</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D35" s="13">
+        <v>17</v>
+      </c>
+      <c r="E35" s="13">
+        <v>18</v>
       </c>
       <c r="F35" t="s">
         <v>35</v>
@@ -1704,13 +1708,13 @@
         <v>65</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D36" s="13">
+        <v>17</v>
+      </c>
+      <c r="E36" s="13">
+        <v>18</v>
       </c>
       <c r="F36" t="s">
         <v>36</v>
@@ -1731,13 +1735,13 @@
         <v>65</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D37" s="13">
+        <v>17</v>
+      </c>
+      <c r="E37" s="13">
+        <v>18</v>
       </c>
       <c r="F37" t="s">
         <v>40</v>
@@ -1758,13 +1762,13 @@
         <v>65</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D38" s="13">
+        <v>17</v>
+      </c>
+      <c r="E38" s="13">
+        <v>18</v>
       </c>
       <c r="F38" t="s">
         <v>40</v>
@@ -1785,13 +1789,13 @@
         <v>65</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D39" s="13">
+        <v>17</v>
+      </c>
+      <c r="E39" s="13">
+        <v>18</v>
       </c>
       <c r="F39" t="s">
         <v>38</v>
@@ -1812,13 +1816,13 @@
         <v>65</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D40" s="13">
+        <v>17</v>
+      </c>
+      <c r="E40" s="13">
+        <v>18</v>
       </c>
       <c r="F40" t="s">
         <v>38</v>
@@ -1839,13 +1843,13 @@
         <v>64</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D41" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E41" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>39</v>
@@ -1866,13 +1870,13 @@
         <v>64</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D42" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E42" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>35</v>
@@ -1893,13 +1897,13 @@
         <v>64</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D43" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E43" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F43" s="13" t="s">
         <v>35</v>
@@ -1920,13 +1924,13 @@
         <v>64</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D44" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E44" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>36</v>
@@ -1947,13 +1951,13 @@
         <v>24</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D45" s="13">
+        <v>17</v>
+      </c>
+      <c r="E45" s="13">
+        <v>18</v>
       </c>
       <c r="F45" t="s">
         <v>34</v>
@@ -1974,13 +1978,13 @@
         <v>24</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D46" s="13">
+        <v>17</v>
+      </c>
+      <c r="E46" s="13">
+        <v>18</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -2001,13 +2005,13 @@
         <v>24</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D47" s="13">
+        <v>17</v>
+      </c>
+      <c r="E47" s="13">
+        <v>18</v>
       </c>
       <c r="F47" t="s">
         <v>39</v>
@@ -2028,13 +2032,13 @@
         <v>24</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D48" s="13">
+        <v>17</v>
+      </c>
+      <c r="E48" s="13">
+        <v>18</v>
       </c>
       <c r="F48" t="s">
         <v>35</v>
@@ -2055,13 +2059,13 @@
         <v>24</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D49" s="13">
+        <v>17</v>
+      </c>
+      <c r="E49" s="13">
+        <v>18</v>
       </c>
       <c r="F49" t="s">
         <v>35</v>
@@ -2082,13 +2086,13 @@
         <v>24</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D50" s="13">
+        <v>17</v>
+      </c>
+      <c r="E50" s="13">
+        <v>18</v>
       </c>
       <c r="F50" t="s">
         <v>36</v>
@@ -2109,13 +2113,13 @@
         <v>24</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D51" s="13">
+        <v>17</v>
+      </c>
+      <c r="E51" s="13">
+        <v>18</v>
       </c>
       <c r="F51" t="s">
         <v>40</v>
@@ -2136,13 +2140,13 @@
         <v>14</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D52" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E52" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F52" s="13" t="s">
         <v>34</v>
@@ -2163,13 +2167,13 @@
         <v>14</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D53" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E53" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F53" s="13" t="s">
         <v>39</v>
@@ -2190,13 +2194,13 @@
         <v>14</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D54" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E54" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>35</v>
@@ -2217,13 +2221,13 @@
         <v>14</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D55" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E55" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>38</v>
@@ -2244,13 +2248,13 @@
         <v>22</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56">
-        <v>7</v>
-      </c>
-      <c r="E56">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D56" s="13">
+        <v>17</v>
+      </c>
+      <c r="E56" s="13">
+        <v>18</v>
       </c>
       <c r="F56" t="s">
         <v>39</v>
@@ -2271,13 +2275,13 @@
         <v>22</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57">
-        <v>7</v>
-      </c>
-      <c r="E57">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D57" s="13">
+        <v>17</v>
+      </c>
+      <c r="E57" s="13">
+        <v>18</v>
       </c>
       <c r="F57" t="s">
         <v>35</v>
@@ -2298,13 +2302,13 @@
         <v>22</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D58">
-        <v>7</v>
-      </c>
-      <c r="E58">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D58" s="13">
+        <v>17</v>
+      </c>
+      <c r="E58" s="13">
+        <v>18</v>
       </c>
       <c r="F58" t="s">
         <v>35</v>
@@ -2325,13 +2329,13 @@
         <v>22</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59">
-        <v>7</v>
-      </c>
-      <c r="E59">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D59" s="13">
+        <v>17</v>
+      </c>
+      <c r="E59" s="13">
+        <v>18</v>
       </c>
       <c r="F59" t="s">
         <v>40</v>
@@ -2351,14 +2355,14 @@
       <c r="B60" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>16</v>
+      <c r="C60" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="13">
+        <v>17</v>
+      </c>
+      <c r="E60" s="13">
+        <v>18</v>
       </c>
       <c r="F60" t="s">
         <v>34</v>
@@ -2378,14 +2382,14 @@
       <c r="B61" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>16</v>
+      <c r="C61" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" s="13">
+        <v>17</v>
+      </c>
+      <c r="E61" s="13">
+        <v>18</v>
       </c>
       <c r="F61" t="s">
         <v>34</v>
@@ -2405,14 +2409,14 @@
       <c r="B62" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>16</v>
+      <c r="C62" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" s="13">
+        <v>17</v>
+      </c>
+      <c r="E62" s="13">
+        <v>18</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -2432,14 +2436,14 @@
       <c r="B63" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>16</v>
+      <c r="C63" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" s="13">
+        <v>17</v>
+      </c>
+      <c r="E63" s="13">
+        <v>18</v>
       </c>
       <c r="F63" t="s">
         <v>35</v>
@@ -2460,13 +2464,13 @@
         <v>4</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D64" s="9">
-        <v>1</v>
-      </c>
-      <c r="E64" s="9">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D64" s="13">
+        <v>17</v>
+      </c>
+      <c r="E64" s="13">
+        <v>18</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>39</v>
@@ -2487,13 +2491,13 @@
         <v>4</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D65" s="9">
-        <v>1</v>
-      </c>
-      <c r="E65" s="9">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D65" s="13">
+        <v>17</v>
+      </c>
+      <c r="E65" s="13">
+        <v>18</v>
       </c>
       <c r="F65" s="9" t="s">
         <v>34</v>
@@ -2514,13 +2518,13 @@
         <v>4</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" s="9">
-        <v>1</v>
-      </c>
-      <c r="E66" s="9">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D66" s="13">
+        <v>17</v>
+      </c>
+      <c r="E66" s="13">
+        <v>18</v>
       </c>
       <c r="F66" s="9" t="s">
         <v>35</v>
@@ -2541,13 +2545,13 @@
         <v>4</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D67" s="9">
-        <v>1</v>
-      </c>
-      <c r="E67" s="9">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D67" s="13">
+        <v>17</v>
+      </c>
+      <c r="E67" s="13">
+        <v>18</v>
       </c>
       <c r="F67" s="9" t="s">
         <v>36</v>
@@ -2568,13 +2572,13 @@
         <v>4</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D68" s="9">
-        <v>1</v>
-      </c>
-      <c r="E68" s="9">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D68" s="13">
+        <v>17</v>
+      </c>
+      <c r="E68" s="13">
+        <v>18</v>
       </c>
       <c r="F68" s="9" t="s">
         <v>40</v>
@@ -2595,13 +2599,13 @@
         <v>4</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D69" s="9">
-        <v>1</v>
-      </c>
-      <c r="E69" s="9">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D69" s="13">
+        <v>17</v>
+      </c>
+      <c r="E69" s="13">
+        <v>18</v>
       </c>
       <c r="F69" s="9" t="s">
         <v>39</v>
@@ -2622,13 +2626,13 @@
         <v>4</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D70" s="9">
-        <v>1</v>
-      </c>
-      <c r="E70" s="9">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D70" s="13">
+        <v>17</v>
+      </c>
+      <c r="E70" s="13">
+        <v>18</v>
       </c>
       <c r="F70" s="9" t="s">
         <v>35</v>
@@ -2649,13 +2653,13 @@
         <v>4</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D71" s="9">
-        <v>1</v>
-      </c>
-      <c r="E71" s="9">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D71" s="13">
+        <v>17</v>
+      </c>
+      <c r="E71" s="13">
+        <v>18</v>
       </c>
       <c r="F71" s="9" t="s">
         <v>35</v>
@@ -2676,13 +2680,13 @@
         <v>4</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D72" s="9">
-        <v>1</v>
-      </c>
-      <c r="E72" s="9">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D72" s="13">
+        <v>17</v>
+      </c>
+      <c r="E72" s="13">
+        <v>18</v>
       </c>
       <c r="F72" s="9" t="s">
         <v>39</v>
@@ -2703,13 +2707,13 @@
         <v>4</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D73" s="9">
-        <v>1</v>
-      </c>
-      <c r="E73" s="9">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D73" s="13">
+        <v>17</v>
+      </c>
+      <c r="E73" s="13">
+        <v>18</v>
       </c>
       <c r="F73" s="9" t="s">
         <v>35</v>
@@ -2730,13 +2734,13 @@
         <v>4</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D74" s="9">
-        <v>1</v>
-      </c>
-      <c r="E74" s="9">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D74" s="13">
+        <v>17</v>
+      </c>
+      <c r="E74" s="13">
+        <v>18</v>
       </c>
       <c r="F74" s="9" t="s">
         <v>36</v>
@@ -2757,13 +2761,13 @@
         <v>4</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D75" s="9">
-        <v>1</v>
-      </c>
-      <c r="E75" s="9">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D75" s="13">
+        <v>17</v>
+      </c>
+      <c r="E75" s="13">
+        <v>18</v>
       </c>
       <c r="F75" s="9" t="s">
         <v>40</v>
@@ -2784,13 +2788,13 @@
         <v>4</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D76" s="9">
-        <v>1</v>
-      </c>
-      <c r="E76" s="9">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D76" s="13">
+        <v>17</v>
+      </c>
+      <c r="E76" s="13">
+        <v>18</v>
       </c>
       <c r="F76" s="9" t="s">
         <v>40</v>
@@ -2811,13 +2815,13 @@
         <v>58</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D77" s="13">
+        <v>17</v>
+      </c>
+      <c r="E77" s="13">
+        <v>18</v>
       </c>
       <c r="F77" t="s">
         <v>35</v>
@@ -2838,13 +2842,13 @@
         <v>58</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D78" s="13">
+        <v>17</v>
+      </c>
+      <c r="E78" s="13">
+        <v>18</v>
       </c>
       <c r="F78" t="s">
         <v>35</v>
@@ -2865,13 +2869,13 @@
         <v>58</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D79" s="13">
+        <v>17</v>
+      </c>
+      <c r="E79" s="13">
+        <v>18</v>
       </c>
       <c r="F79" t="s">
         <v>36</v>
@@ -2892,13 +2896,13 @@
         <v>58</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D80" s="13">
+        <v>17</v>
+      </c>
+      <c r="E80" s="13">
+        <v>18</v>
       </c>
       <c r="F80" t="s">
         <v>40</v>
@@ -2919,13 +2923,13 @@
         <v>62</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D81" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E81" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F81" s="13" t="s">
         <v>34</v>
@@ -2946,13 +2950,13 @@
         <v>62</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D82" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E82" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F82" s="13" t="s">
         <v>34</v>
@@ -2973,13 +2977,13 @@
         <v>62</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D83" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E83" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F83" s="13" t="s">
         <v>35</v>
@@ -3000,13 +3004,13 @@
         <v>62</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D84" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E84" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F84" s="13" t="s">
         <v>36</v>
@@ -3027,13 +3031,13 @@
         <v>10</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D85" s="13">
+        <v>17</v>
+      </c>
+      <c r="E85" s="13">
+        <v>18</v>
       </c>
       <c r="F85" t="s">
         <v>34</v>
@@ -3054,13 +3058,13 @@
         <v>10</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D86" s="13">
+        <v>17</v>
+      </c>
+      <c r="E86" s="13">
+        <v>18</v>
       </c>
       <c r="F86" t="s">
         <v>34</v>
@@ -3081,13 +3085,13 @@
         <v>10</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D87" s="13">
+        <v>17</v>
+      </c>
+      <c r="E87" s="13">
+        <v>18</v>
       </c>
       <c r="F87" t="s">
         <v>34</v>
@@ -3108,13 +3112,13 @@
         <v>10</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D88" s="13">
+        <v>17</v>
+      </c>
+      <c r="E88" s="13">
+        <v>18</v>
       </c>
       <c r="F88" t="s">
         <v>39</v>
@@ -3135,13 +3139,13 @@
         <v>10</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D89" s="13">
+        <v>17</v>
+      </c>
+      <c r="E89" s="13">
+        <v>18</v>
       </c>
       <c r="F89" t="s">
         <v>39</v>
@@ -3162,13 +3166,13 @@
         <v>10</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D90" s="13">
+        <v>17</v>
+      </c>
+      <c r="E90" s="13">
+        <v>18</v>
       </c>
       <c r="F90" t="s">
         <v>35</v>
@@ -3189,13 +3193,13 @@
         <v>10</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D91" s="13">
+        <v>17</v>
+      </c>
+      <c r="E91" s="13">
+        <v>18</v>
       </c>
       <c r="F91" t="s">
         <v>35</v>
@@ -3216,13 +3220,13 @@
         <v>10</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D92" s="13">
+        <v>17</v>
+      </c>
+      <c r="E92" s="13">
+        <v>18</v>
       </c>
       <c r="F92" t="s">
         <v>36</v>
@@ -3243,13 +3247,13 @@
         <v>67</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D93" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E93" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F93" s="13" t="s">
         <v>34</v>
@@ -3270,13 +3274,13 @@
         <v>67</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D94" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E94" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>36</v>
@@ -3297,13 +3301,13 @@
         <v>67</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D95" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E95" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F95" s="13" t="s">
         <v>38</v>
@@ -3324,13 +3328,13 @@
         <v>66</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D96" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E96" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F96" s="13" t="s">
         <v>39</v>
@@ -3351,13 +3355,13 @@
         <v>66</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D97" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E97" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F97" s="13" t="s">
         <v>38</v>
@@ -3378,13 +3382,13 @@
         <v>28</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D98" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E98" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F98" s="13" t="s">
         <v>36</v>
@@ -3405,13 +3409,13 @@
         <v>28</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D99" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E99" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F99" s="13" t="s">
         <v>36</v>
@@ -3432,13 +3436,13 @@
         <v>28</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D100" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E100" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F100" s="13" t="s">
         <v>40</v>
@@ -3459,13 +3463,13 @@
         <v>28</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D101" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E101" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F101" s="13" t="s">
         <v>40</v>
@@ -3486,13 +3490,13 @@
         <v>28</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D102" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E102" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F102" s="13" t="s">
         <v>40</v>
@@ -3513,13 +3517,13 @@
         <v>28</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D103" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E103" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F103" s="13" t="s">
         <v>38</v>
@@ -3540,13 +3544,13 @@
         <v>59</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
-      <c r="E104">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D104" s="13">
+        <v>17</v>
+      </c>
+      <c r="E104" s="13">
+        <v>18</v>
       </c>
       <c r="F104" t="s">
         <v>34</v>
@@ -3567,13 +3571,13 @@
         <v>59</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-      <c r="E105">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D105" s="13">
+        <v>17</v>
+      </c>
+      <c r="E105" s="13">
+        <v>18</v>
       </c>
       <c r="F105" t="s">
         <v>34</v>
@@ -3594,13 +3598,13 @@
         <v>59</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-      <c r="E106">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D106" s="13">
+        <v>17</v>
+      </c>
+      <c r="E106" s="13">
+        <v>18</v>
       </c>
       <c r="F106" t="s">
         <v>36</v>
@@ -3621,13 +3625,13 @@
         <v>26</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D107" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E107" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F107" s="13" t="s">
         <v>34</v>
@@ -3648,13 +3652,13 @@
         <v>26</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D108" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E108" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F108" s="13" t="s">
         <v>34</v>
@@ -3675,13 +3679,13 @@
         <v>26</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D109" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E109" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F109" s="13" t="s">
         <v>34</v>
@@ -3702,13 +3706,13 @@
         <v>26</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D110" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E110" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F110" s="13" t="s">
         <v>39</v>
@@ -3729,13 +3733,13 @@
         <v>26</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D111" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E111" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F111" s="13" t="s">
         <v>35</v>
@@ -3756,13 +3760,13 @@
         <v>26</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D112" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E112" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F112" s="13" t="s">
         <v>35</v>
@@ -3783,13 +3787,13 @@
         <v>26</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D113" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E113" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F113" s="13" t="s">
         <v>35</v>
@@ -3810,13 +3814,13 @@
         <v>26</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D114" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E114" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F114" s="13" t="s">
         <v>35</v>
@@ -3837,13 +3841,13 @@
         <v>26</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D115" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E115" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F115" s="13" t="s">
         <v>40</v>
@@ -3864,13 +3868,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
-      <c r="E116">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D116" s="13">
+        <v>17</v>
+      </c>
+      <c r="E116" s="13">
+        <v>18</v>
       </c>
       <c r="F116" t="s">
         <v>36</v>
@@ -3891,13 +3895,13 @@
         <v>18</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D117" s="17">
-        <v>1</v>
-      </c>
-      <c r="E117" s="17">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D117" s="13">
+        <v>17</v>
+      </c>
+      <c r="E117" s="13">
+        <v>18</v>
       </c>
       <c r="F117" s="17" t="s">
         <v>34</v>
@@ -3918,13 +3922,13 @@
         <v>18</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D118" s="17">
-        <v>1</v>
-      </c>
-      <c r="E118" s="17">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D118" s="13">
+        <v>17</v>
+      </c>
+      <c r="E118" s="13">
+        <v>18</v>
       </c>
       <c r="F118" s="17" t="s">
         <v>34</v>
@@ -3945,13 +3949,13 @@
         <v>18</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D119" s="17">
-        <v>1</v>
-      </c>
-      <c r="E119" s="17">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D119" s="13">
+        <v>17</v>
+      </c>
+      <c r="E119" s="13">
+        <v>18</v>
       </c>
       <c r="F119" s="17" t="s">
         <v>35</v>
@@ -3972,13 +3976,13 @@
         <v>18</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D120" s="17">
-        <v>1</v>
-      </c>
-      <c r="E120" s="17">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D120" s="13">
+        <v>17</v>
+      </c>
+      <c r="E120" s="13">
+        <v>18</v>
       </c>
       <c r="F120" s="17" t="s">
         <v>35</v>
@@ -3999,13 +4003,13 @@
         <v>18</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D121" s="17">
-        <v>1</v>
-      </c>
-      <c r="E121" s="17">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D121" s="13">
+        <v>17</v>
+      </c>
+      <c r="E121" s="13">
+        <v>18</v>
       </c>
       <c r="F121" s="17" t="s">
         <v>36</v>
@@ -4026,13 +4030,13 @@
         <v>18</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D122" s="17">
-        <v>1</v>
-      </c>
-      <c r="E122" s="17">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D122" s="13">
+        <v>17</v>
+      </c>
+      <c r="E122" s="13">
+        <v>18</v>
       </c>
       <c r="F122" s="17" t="s">
         <v>40</v>
@@ -4053,13 +4057,13 @@
         <v>16</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D123">
-        <v>1</v>
-      </c>
-      <c r="E123">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D123" s="13">
+        <v>17</v>
+      </c>
+      <c r="E123" s="13">
+        <v>18</v>
       </c>
       <c r="F123" t="s">
         <v>38</v>
@@ -4080,13 +4084,13 @@
         <v>16</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-      <c r="E124">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D124" s="13">
+        <v>17</v>
+      </c>
+      <c r="E124" s="13">
+        <v>18</v>
       </c>
       <c r="F124" t="s">
         <v>38</v>
@@ -4107,13 +4111,13 @@
         <v>16</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
-      <c r="E125">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D125" s="13">
+        <v>17</v>
+      </c>
+      <c r="E125" s="13">
+        <v>18</v>
       </c>
       <c r="F125" s="9" t="s">
         <v>38</v>
@@ -4134,13 +4138,13 @@
         <v>16</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D126">
-        <v>1</v>
-      </c>
-      <c r="E126">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D126" s="13">
+        <v>17</v>
+      </c>
+      <c r="E126" s="13">
+        <v>18</v>
       </c>
       <c r="F126" s="9" t="s">
         <v>38</v>
@@ -4161,13 +4165,13 @@
         <v>81</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D127">
-        <v>6</v>
-      </c>
-      <c r="E127">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D127" s="13">
+        <v>17</v>
+      </c>
+      <c r="E127" s="13">
+        <v>18</v>
       </c>
       <c r="F127" t="s">
         <v>34</v>
@@ -4188,13 +4192,13 @@
         <v>81</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D128">
-        <v>6</v>
-      </c>
-      <c r="E128">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D128" s="13">
+        <v>17</v>
+      </c>
+      <c r="E128" s="13">
+        <v>18</v>
       </c>
       <c r="F128" t="s">
         <v>34</v>
@@ -4215,13 +4219,13 @@
         <v>81</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D129">
-        <v>6</v>
-      </c>
-      <c r="E129">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D129" s="13">
+        <v>17</v>
+      </c>
+      <c r="E129" s="13">
+        <v>18</v>
       </c>
       <c r="F129" t="s">
         <v>34</v>
@@ -4242,13 +4246,13 @@
         <v>81</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D130">
-        <v>6</v>
-      </c>
-      <c r="E130">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D130" s="13">
+        <v>17</v>
+      </c>
+      <c r="E130" s="13">
+        <v>18</v>
       </c>
       <c r="F130" t="s">
         <v>39</v>
@@ -4269,13 +4273,13 @@
         <v>81</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D131">
-        <v>6</v>
-      </c>
-      <c r="E131">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D131" s="13">
+        <v>17</v>
+      </c>
+      <c r="E131" s="13">
+        <v>18</v>
       </c>
       <c r="F131" t="s">
         <v>39</v>
@@ -4296,13 +4300,13 @@
         <v>81</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D132">
-        <v>6</v>
-      </c>
-      <c r="E132">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D132" s="13">
+        <v>17</v>
+      </c>
+      <c r="E132" s="13">
+        <v>18</v>
       </c>
       <c r="F132" t="s">
         <v>35</v>
@@ -4323,13 +4327,13 @@
         <v>81</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D133">
-        <v>6</v>
-      </c>
-      <c r="E133">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D133" s="13">
+        <v>17</v>
+      </c>
+      <c r="E133" s="13">
+        <v>18</v>
       </c>
       <c r="F133" t="s">
         <v>35</v>
@@ -4350,13 +4354,13 @@
         <v>81</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D134">
-        <v>6</v>
-      </c>
-      <c r="E134">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D134" s="13">
+        <v>17</v>
+      </c>
+      <c r="E134" s="13">
+        <v>18</v>
       </c>
       <c r="F134" t="s">
         <v>36</v>
